--- a/gatsby-site/src/data-graphql/production_volumes.xlsx
+++ b/gatsby-site/src/data-graphql/production_volumes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -509,20 +509,20 @@
   <dimension ref="A1:F626"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>39478</v>
       </c>
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="6">
-        <v>42606099.452757999</v>
+        <v>2</v>
       </c>
       <c r="E2" s="6">
         <v>248490856.81319401</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>39478</v>
       </c>
@@ -576,7 +576,7 @@
         <v>312665433.83756614</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>39478</v>
       </c>
@@ -587,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="6">
-        <v>949788.24159900006</v>
+        <v>949788.24159899994</v>
       </c>
       <c r="E4" s="6">
         <v>24638227.518324003</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>39478</v>
       </c>
@@ -609,7 +609,7 @@
         <v>39826705.999980003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>39478</v>
       </c>
@@ -625,7 +625,7 @@
         <v>2219944</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>39507</v>
       </c>
@@ -642,7 +642,7 @@
         <v>235859125.21075699</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>39507</v>
       </c>
@@ -659,7 +659,7 @@
         <v>295542245.10854697</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>39507</v>
       </c>
@@ -676,7 +676,7 @@
         <v>23270702.410518993</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>39507</v>
       </c>
@@ -692,7 +692,7 @@
         <v>39722690.000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>39507</v>
       </c>
@@ -708,7 +708,7 @@
         <v>2110049</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>39538</v>
       </c>
@@ -725,7 +725,7 @@
         <v>247274634.27610102</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>39538</v>
       </c>
@@ -742,7 +742,7 @@
         <v>330384442.47675604</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>39538</v>
       </c>
@@ -759,7 +759,7 @@
         <v>25870081.516022999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>39538</v>
       </c>
@@ -775,7 +775,7 @@
         <v>40804536.000020005</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>39538</v>
       </c>
@@ -791,7 +791,7 @@
         <v>2155616</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>39568</v>
       </c>
@@ -808,7 +808,7 @@
         <v>216578008.892304</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>39568</v>
       </c>
@@ -825,7 +825,7 @@
         <v>320370546.97662491</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>39568</v>
       </c>
@@ -842,7 +842,7 @@
         <v>24927139.270369999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>39568</v>
       </c>
@@ -858,7 +858,7 @@
         <v>40910901</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>39568</v>
       </c>
@@ -874,7 +874,7 @@
         <v>1898899</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>39599</v>
       </c>
@@ -891,7 +891,7 @@
         <v>215879010.90928698</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>39599</v>
       </c>
@@ -908,7 +908,7 @@
         <v>328694884.08763403</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>39599</v>
       </c>
@@ -925,7 +925,7 @@
         <v>25782346.624054998</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>39599</v>
       </c>
@@ -941,7 +941,7 @@
         <v>39398953.000050008</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>39599</v>
       </c>
@@ -957,7 +957,7 @@
         <v>1985025</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>39629</v>
       </c>
@@ -974,7 +974,7 @@
         <v>227474810.57611799</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>39629</v>
       </c>
@@ -991,7 +991,7 @@
         <v>318553212.58158612</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>39629</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>24926902.834383</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>39629</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>36648691</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>39629</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>2325913</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>39660</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>238496588.33722299</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>39660</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>333964962.12576401</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>39660</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>26047108.597853001</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>39660</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>39415274.000009999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>39660</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>2640388</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>39691</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>219912312.111442</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>39691</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>333054600.13722998</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>39691</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>25588887.043657999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39691</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>42988013.999970004</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>39691</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>2439253</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>39721</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>69750474.379354998</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>39721</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>307722200.23472887</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>39721</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>24929663.589369997</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>39721</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>40421871.000040002</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>39721</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>2387588</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>39752</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>141886453.07645699</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>39752</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>335794058.31421196</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>39752</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>25749431.658467997</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>39752</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>45051205.999996997</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>39752</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>2511635</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>39782</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>165714441.36575699</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>39782</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>333848197.76854193</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>39782</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>24890832.333535999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>39782</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>42442150.000032</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>39782</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>2153188</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>39813</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>182939915.23923001</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>39813</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>339557053.12965709</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>39813</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>24914341.458000995</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>39813</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>39493993.999980003</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>39813</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>2125407</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>39844</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>203622290.421491</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>39844</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>344859812.19996399</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>39844</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>24807679.30707299</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>39844</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>40936176.999949999</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>39844</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>2052390</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>39872</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>191804668.34597501</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>39872</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>317371882.02433085</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>39872</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>23255634.178279996</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>39872</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>38145606.000009999</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>39872</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>1804533</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>39903</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>213281410.18350402</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>39903</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>348516563.90825695</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>39903</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>25585100.694782007</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>39903</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>38238166.999995999</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>39903</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>2147583</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>39933</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>207810779.27140501</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>39933</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>331713081.59396094</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>39933</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>24521014.849251997</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>39933</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>33485662.000050001</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>39933</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>2319185</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>39964</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>211607983.538652</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>39964</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>338862096.9645021</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>39964</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>25107628.206095006</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>39964</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>35278769.999949999</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>39964</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>2234668</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>39994</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>217591315.806977</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>39994</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>324461600.78008389</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>39994</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>23388691.225456003</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>39994</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>32689882.999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>39994</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>2309024</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>40025</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>230853923.087915</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>40025</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>319875903.45996594</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>40025</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>25097394.004556004</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>40025</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>38422435.999994002</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>40025</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>2345725</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>40056</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>217192784.79085699</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>40056</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>331251503.547737</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>40056</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>25125957.547327004</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>40056</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>39778093.000009991</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>40056</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>2209028</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>40086</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>206509297.64762801</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>40086</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>309681970.81383896</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>40086</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>23771857.969407998</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>40086</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>39392564.000020005</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>40086</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>2364021</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>40117</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>215160065.975171</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>40117</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>337894610.65835202</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>40117</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>24523219.614303999</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>40117</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>38081263.000004999</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>40117</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>1966556</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>40147</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>200249926.81965101</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>40147</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>334016341.83351398</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>40147</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>23543527.357089002</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>40147</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>37614021</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>40147</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>1840979</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>40178</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>207451176.24919</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>40178</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>335555252.22355109</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>40178</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>23292539.447381996</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>40178</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>36374086.000004001</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>40178</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>1932698</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>40209</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>210471484.69564301</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>40209</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>335281956.27284896</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>40209</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>23512437.130468</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>40209</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>37385869.999970995</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>40209</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>1612890</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>40237</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>195269189.41332301</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>40237</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>302682914.46806294</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>40237</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>21551772.428117003</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>40237</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>36431297.000004999</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>40237</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>1892405</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>40268</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>217243848.19409201</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>40268</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>335937084.14683104</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>40268</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>24139327.623528004</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>40268</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>39182647.999989994</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>40268</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>1743062</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>40298</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>201047323.10053501</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>40298</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>327334677.76824003</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>40298</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>23734095.609730002</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>40298</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>37425070.999959998</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>40298</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>1795669</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>40329</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>200016321.862607</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>40329</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>334323122.46062702</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>40329</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>24986401.213822007</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>40329</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>37144603.999960005</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>40329</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>1742781</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>40359</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>185289258.415905</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>40359</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>310809306.91493303</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>40359</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>24317236.153050996</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>40359</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>36578040.999989994</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>40359</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>1582003</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>40390</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>185138750.926797</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>40390</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>328208493.95746607</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>40390</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>24882614.089178</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>40390</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>38135192.999995999</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <v>40390</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>1609279</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>40421</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>194095848.63562101</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>40421</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>330411573.10808903</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>40421</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>25419847.201634005</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>40421</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>41050494</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>40421</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>1735723</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>40451</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>183417239.476648</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>40451</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>319280549.0817039</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>40451</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>24876765.578242008</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <v>40451</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>40744703.999988005</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>40451</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>2038643</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>40482</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>188896511.008504</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>40482</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>327813181.07717282</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>40482</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>26006861.172796</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>40482</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>40725641.000029996</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>40482</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>1795394</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>40512</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>175361858.66125301</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>40512</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>321464133.85413998</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>40512</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>25352173.487647995</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <v>40512</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>32529477.00003</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>40512</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>1605752</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>40543</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>186383233.53477299</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>40543</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>332070915.40821517</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>40543</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>26110977.348668996</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>40543</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>39561230.999960996</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>40543</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>1832658</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>40574</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>185255391.811748</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>40574</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>318865229.47874087</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>40574</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>24916904.090682</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>40574</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>39876734.000018999</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <v>40574</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>2253425</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>40602</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>158513541.302266</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>40602</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>287412978.45308793</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>40602</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>23115873.479244001</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <v>40602</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>33558869.000053003</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>40602</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>1494323</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>40633</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>175605933.278979</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>40633</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>325031949.89466</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>40633</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>26358805.866253998</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <v>40633</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>40399121.000049002</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>40633</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>1772654</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>40663</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>167609936.115742</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>40663</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>318093549.09641999</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>40663</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>24713536.770156998</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>40663</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>37740771.999983996</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <v>40663</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>1684420</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>40694</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>169731951.373254</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>40694</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>327724607.47507501</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>40694</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>25619440.054779001</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <v>40694</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>36119046.999949001</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>40694</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>1936675</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>40724</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>156185180.35867998</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>40724</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>314974346.88224107</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>40724</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>25322661.333722994</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>40724</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>33705453.000010997</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <v>40724</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>1973047</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>40755</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>154202603.31139201</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>40755</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>328223666.51594305</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>40755</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>26283294.437240995</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <v>40755</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>32683729.000023998</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>40755</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>1889907</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>40786</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>156708273.059607</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>40786</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>310583849.57700008</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>40786</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>26248752.429214001</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>40786</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>37915804.000053003</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <v>40786</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>1454592</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>40816</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>130201680.558258</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>40816</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>314634755.87164497</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>40816</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>25034050.910678994</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
         <v>40816</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>37324002.999986</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <v>40816</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>1698967</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>40847</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>148531804.82250798</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>40847</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>332692805.07797396</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>40847</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>26078910.184456997</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <v>40847</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>40660412.000007994</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
         <v>40847</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>2034208</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>40877</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>144252892.57756299</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>40877</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>324087889.87269104</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>40877</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>25587415.712887999</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <v>40877</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>40681393.999998994</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <v>40877</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>1886110</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>40908</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>149364159.76740199</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>40908</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>329305723.46593195</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>40908</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>25874611.033593997</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <v>40908</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>41213621.999972999</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <v>40908</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>1235289</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>40939</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>146951849.03065601</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>40939</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>332521682.34500289</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>40939</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>26412097.602766</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <v>40939</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>39621589.000091001</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <v>40939</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>1981835</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>40968</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>135261624.90672201</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>40968</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>309308118.80767095</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>40968</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>24921978.223653995</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
         <v>40968</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>36249605.000028998</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="7">
         <v>40968</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>1848570</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>40999</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>145991170.36938</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>40999</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>328736474.07556313</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>40999</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>26495555.584901001</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
         <v>40999</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>32908329.000047002</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <v>40999</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>1930970</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>41029</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>137427484.56252801</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>41029</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>313767669.19927096</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>41029</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>25595504.320489999</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
         <v>41029</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>29041031.999981005</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
         <v>41029</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>1386877</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>41060</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>136012527.812565</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>41060</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>320263797.44684118</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>41060</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>26438137.488763001</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="7">
         <v>41060</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>31329856.000045005</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
         <v>41060</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>1625737</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>41090</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>123875685.49710299</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>41090</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>307916367.67922497</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>41090</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>25292792.470357001</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="7">
         <v>41090</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>32317862.000014003</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
         <v>41090</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>1568194</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>41121</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>133642504.47969601</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>41121</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>317576669.634076</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>41121</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>26121578.910684001</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
         <v>41121</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>39360710.000061996</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
         <v>41121</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>1447117</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>41152</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>114397829.85618201</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>41152</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>311414480.63708085</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>41152</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>26307550.990195006</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
         <v>41152</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>40126533.000030003</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
         <v>41152</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>1468942</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>41182</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>116104495.891498</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>41182</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>300368029.0855099</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>41182</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>25711778.401251007</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="7">
         <v>41182</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>37476124.000042006</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="7">
         <v>41182</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>1427953</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>41213</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>132814887.21278299</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>41213</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>311336973.90473205</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>41213</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>27017933.410041995</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="7">
         <v>41213</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>35275147.999958999</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="7">
         <v>41213</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>1746130</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>41243</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>130735636.410596</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>41243</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>300507072.28023791</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>41243</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>25915225.430633001</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="7">
         <v>41243</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>36099698.000044003</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="7">
         <v>41243</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>1340397</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>41274</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>132229410.79265399</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>41274</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>304680325.52417696</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>41274</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>26177933.842238996</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="7">
         <v>41274</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>32703305.000016998</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="7">
         <v>41274</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>1058533</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>41305</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>128904552.12500401</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>41305</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>297133387.89084685</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>41305</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>24697074.713709</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="7">
         <v>41305</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>33492409.999940004</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="7">
         <v>41305</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>1414729</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <v>41333</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>113835243.269987</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>41333</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>273874203.52370799</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>41333</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>23462587.137230001</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="7">
         <v>41333</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>30481388.000002</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="7">
         <v>41333</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>1722483</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>41364</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>123267355.86891201</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>41364</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>303413530.61815691</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>41364</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>26520513.296785001</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="7">
         <v>41364</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>31554257.999979999</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="7">
         <v>41364</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>1601392</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>41394</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>120932384.25183001</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>41394</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>295126973.24314511</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>41394</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>25988022.785565995</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="7">
         <v>41394</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>30641951.000064</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="7">
         <v>41394</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>1775937</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>41425</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>119055668.753278</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>41425</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>297758351.63382512</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>41425</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>26665286.871594999</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="7">
         <v>41425</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>32892522.000001002</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="7">
         <v>41425</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>1231695</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>41455</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>109251621.60934301</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <v>41455</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>290007178.99367499</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>41455</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>26200603.446768999</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="7">
         <v>41455</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>32945999.000050001</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="7">
         <v>41455</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>1464335</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>41486</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>114827810.94823399</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <v>41486</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>298468478.83758289</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>41486</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>27417061.820783995</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="7">
         <v>41486</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>35878381.999975003</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="7">
         <v>41486</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>1548969</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>41517</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>109227755.92979199</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>41517</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>298543633.31270403</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>41517</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>27222685.567283001</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="7">
         <v>41517</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>36459087.000052005</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="7">
         <v>41517</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>1719610</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <v>41547</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>113723587.91169</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>41547</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>276537849.31915003</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <v>41547</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>26242137.193638995</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="7">
         <v>41547</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>35116077.999974996</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="7">
         <v>41547</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>1632862</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>41578</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>107316758.843363</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>41578</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>303886657.29402405</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>41578</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>27502476.720682003</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="7">
         <v>41578</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>32376033.999970004</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="7">
         <v>41578</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>1750278</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <v>41608</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>113292462.719723</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <v>41608</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>293581234.12517005</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <v>41608</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>26289863.119184006</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="7">
         <v>41608</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>33665424.000035003</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="7">
         <v>41608</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>1970620</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <v>41639</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>112196412.187994</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>41639</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>293617190.74092704</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <v>41639</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>25938443.214085001</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="7">
         <v>41639</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>32510560.999957003</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="7">
         <v>41639</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>1894694</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <v>41670</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>107956213.743789</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <v>41670</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>296023745.39902794</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <v>41670</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>26484330.823094998</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="7">
         <v>41670</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>34790955.000010006</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="7">
         <v>41670</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>1757529</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <v>41698</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>100454463.224298</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <v>41698</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>268911603.89392704</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <v>41698</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>24526948.892466001</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="7">
         <v>41698</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>29682030.000037</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="7">
         <v>41698</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>1485922</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <v>41729</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>110399647.373954</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <v>41729</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>299876257.662799</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <v>41729</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>27305918.879669994</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="7">
         <v>41729</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>34623327.000015005</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="7">
         <v>41729</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>1998634</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
         <v>41759</v>
       </c>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="F377" s="10"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>41759</v>
       </c>
@@ -6803,7 +6803,7 @@
       </c>
       <c r="F378" s="10"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
         <v>41759</v>
       </c>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="F379" s="10"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="7">
         <v>41759</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>32988347.999998</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="7">
         <v>41759</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>1820690</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
         <v>41790</v>
       </c>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F382" s="10"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
         <v>41790</v>
       </c>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="F383" s="10"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
         <v>41790</v>
       </c>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="F384" s="10"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="7">
         <v>41790</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>34429428.000032999</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="7">
         <v>41790</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>1935957</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
         <v>41820</v>
       </c>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="F387" s="10"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
         <v>41820</v>
       </c>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="F388" s="10"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
         <v>41820</v>
       </c>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="F389" s="10"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="7">
         <v>41820</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>33330149.999963</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="7">
         <v>41820</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>1138596</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
         <v>41851</v>
       </c>
@@ -7037,7 +7037,7 @@
       </c>
       <c r="F392" s="10"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
         <v>41851</v>
       </c>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="F393" s="10"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
         <v>41851</v>
       </c>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="F394" s="10"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="7">
         <v>41851</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>35490508.999975994</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="7">
         <v>41851</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>1683686</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
         <v>41882</v>
       </c>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="F397" s="10"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
         <v>41882</v>
       </c>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="F398" s="10"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
         <v>41882</v>
       </c>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="F399" s="10"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="7">
         <v>41882</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>36037152.999962002</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="7">
         <v>41882</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>1750222</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
         <v>41912</v>
       </c>
@@ -7205,7 +7205,7 @@
       </c>
       <c r="F402" s="10"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
         <v>41912</v>
       </c>
@@ -7223,7 +7223,7 @@
       </c>
       <c r="F403" s="10"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
         <v>41912</v>
       </c>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="F404" s="10"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="7">
         <v>41912</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>32763628.999964003</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="7">
         <v>41912</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>1690498</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
         <v>41943</v>
       </c>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F407" s="10"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
         <v>41943</v>
       </c>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="F408" s="10"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
         <v>41943</v>
       </c>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="F409" s="10"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="7">
         <v>41943</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>35706814.999958992</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="7">
         <v>41943</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>1618495</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
         <v>41973</v>
       </c>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="F412" s="10"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
         <v>41973</v>
       </c>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="F413" s="10"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
         <v>41973</v>
       </c>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="F414" s="10"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="7">
         <v>41973</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>34749343.000023998</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="7">
         <v>41973</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>1438145</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
         <v>42004</v>
       </c>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="F417" s="10"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
         <v>42004</v>
       </c>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="F418" s="10"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
         <v>42004</v>
       </c>
@@ -7493,7 +7493,7 @@
       </c>
       <c r="F419" s="10"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="7">
         <v>42004</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>34896403.000053003</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="7">
         <v>42004</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>1610645</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
         <v>42035</v>
       </c>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="F422" s="10"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
         <v>42035</v>
       </c>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="F423" s="10"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
         <v>42035</v>
       </c>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="F424" s="10"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="7">
         <v>42035</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>35837786.000030003</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="7">
         <v>42035</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>1534367</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A427" s="4">
         <v>42063</v>
       </c>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="F427" s="10"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
         <v>42063</v>
       </c>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="F428" s="10"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="4">
         <v>42063</v>
       </c>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="F429" s="10"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="7">
         <v>42063</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>30718491.999961004</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="7">
         <v>42063</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>1558406</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
         <v>42094</v>
       </c>
@@ -7709,7 +7709,7 @@
       </c>
       <c r="F432" s="10"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
         <v>42094</v>
       </c>
@@ -7727,7 +7727,7 @@
       </c>
       <c r="F433" s="10"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
         <v>42094</v>
       </c>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="F434" s="10"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="7">
         <v>42094</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>32855558.000018999</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="7">
         <v>42094</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>1441836</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
         <v>42124</v>
       </c>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="F437" s="10"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
         <v>42124</v>
       </c>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="F438" s="10"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
         <v>42124</v>
       </c>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="F439" s="10"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="7">
         <v>42124</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>28846111.000014998</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="7">
         <v>42124</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>1541307</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
         <v>42155</v>
       </c>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="F442" s="10"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="4">
         <v>42155</v>
       </c>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="F443" s="10"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="4">
         <v>42155</v>
       </c>
@@ -7913,7 +7913,7 @@
       </c>
       <c r="F444" s="10"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="7">
         <v>42155</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>27400394.000018001</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="7">
         <v>42155</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>1799151</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
         <v>42185</v>
       </c>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="F447" s="10"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A448" s="4">
         <v>42185</v>
       </c>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="F448" s="10"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
         <v>42185</v>
       </c>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="F449" s="10"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="7">
         <v>42185</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>28418281.999994002</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="7">
         <v>42185</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>1698264</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
         <v>42216</v>
       </c>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="F452" s="10"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A453" s="4">
         <v>42216</v>
       </c>
@@ -8063,7 +8063,7 @@
       </c>
       <c r="F453" s="10"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
         <v>42216</v>
       </c>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="F454" s="10"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="7">
         <v>42216</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>32434763.000008002</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="7">
         <v>42216</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>1528851</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
         <v>42247</v>
       </c>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="F457" s="10"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
         <v>42247</v>
       </c>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="F458" s="10"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="4">
         <v>42247</v>
       </c>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="F459" s="10"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="7">
         <v>42247</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>35097309.000054009</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="7">
         <v>42247</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>1671527</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
         <v>42277</v>
       </c>
@@ -8213,7 +8213,7 @@
       </c>
       <c r="F462" s="10"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
         <v>42277</v>
       </c>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="F463" s="10"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
         <v>42277</v>
       </c>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="F464" s="10"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="7">
         <v>42277</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>32645633.000014003</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="7">
         <v>42277</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>1660818</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
         <v>42308</v>
       </c>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="F467" s="10"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A468" s="4">
         <v>42308</v>
       </c>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="F468" s="10"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="4">
         <v>42308</v>
       </c>
@@ -8333,7 +8333,7 @@
       </c>
       <c r="F469" s="10"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="7">
         <v>42308</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>34933374.000005998</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="7">
         <v>42308</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>1590550</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A472" s="4">
         <v>42338</v>
       </c>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="F472" s="10"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A473" s="4">
         <v>42338</v>
       </c>
@@ -8399,7 +8399,7 @@
       </c>
       <c r="F473" s="10"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
         <v>42338</v>
       </c>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="F474" s="10"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="7">
         <v>42338</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>31907688.999956001</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="7">
         <v>42338</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>1236781</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
         <v>42369</v>
       </c>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="F477" s="10"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A478" s="4">
         <v>42369</v>
       </c>
@@ -8483,7 +8483,7 @@
       </c>
       <c r="F478" s="10"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="4">
         <v>42369</v>
       </c>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="F479" s="10"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="7">
         <v>42369</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>24653767.999995999</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="7">
         <v>42369</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>1228030</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
         <v>42400</v>
       </c>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="F482" s="10"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
         <v>42400</v>
       </c>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="F483" s="10"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="4">
         <v>42400</v>
       </c>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F484" s="10"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="7">
         <v>42400</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>22385252.000007</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="7">
         <v>42400</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>1216479</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="4">
         <v>42429</v>
       </c>
@@ -8633,7 +8633,7 @@
       </c>
       <c r="F487" s="10"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
         <v>42429</v>
       </c>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="F488" s="10"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="4">
         <v>42429</v>
       </c>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F489" s="10"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="7">
         <v>42429</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>21437740.999996003</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="7">
         <v>42429</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>1100191</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
         <v>42460</v>
       </c>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="F492" s="10"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A493" s="4">
         <v>42460</v>
       </c>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="F493" s="10"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="4">
         <v>42460</v>
       </c>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="F494" s="10"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="7">
         <v>42460</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>20238449.000011001</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="7">
         <v>42460</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>1349184</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="4">
         <v>42490</v>
       </c>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="F497" s="10"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="4">
         <v>42490</v>
       </c>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="F498" s="10"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="4">
         <v>42490</v>
       </c>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="F499" s="10"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="7">
         <v>42490</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>18209082.000051003</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="7">
         <v>42490</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>701080</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A502" s="4">
         <v>42521</v>
       </c>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="F502" s="10"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A503" s="4">
         <v>42521</v>
       </c>
@@ -8903,7 +8903,7 @@
       </c>
       <c r="F503" s="10"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="4">
         <v>42521</v>
       </c>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="F504" s="10"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="7">
         <v>42521</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>17466152.000010002</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="7">
         <v>42521</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>1022304</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A507" s="4">
         <v>42551</v>
       </c>
@@ -8969,7 +8969,7 @@
       </c>
       <c r="F507" s="10"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A508" s="4">
         <v>42551</v>
       </c>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="F508" s="10"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="4">
         <v>42551</v>
       </c>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="F509" s="10"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="7">
         <v>42551</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>24182132.000041001</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="7">
         <v>42551</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>956567</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A512" s="4">
         <v>42582</v>
       </c>
@@ -9053,7 +9053,7 @@
       </c>
       <c r="F512" s="10"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A513" s="4">
         <v>42582</v>
       </c>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="F513" s="10"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="4">
         <v>42582</v>
       </c>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="F514" s="10"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="7">
         <v>42582</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>23325632.999990001</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="7">
         <v>42582</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>976850</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A517" s="4">
         <v>42613</v>
       </c>
@@ -9137,7 +9137,7 @@
       </c>
       <c r="F517" s="10"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A518" s="4">
         <v>42613</v>
       </c>
@@ -9155,7 +9155,7 @@
       </c>
       <c r="F518" s="10"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="4">
         <v>42613</v>
       </c>
@@ -9173,7 +9173,7 @@
       </c>
       <c r="F519" s="10"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="7">
         <v>42613</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>29500443.999981999</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="7">
         <v>42613</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>1385942</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A522" s="4">
         <v>42643</v>
       </c>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F522" s="10"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A523" s="4">
         <v>42643</v>
       </c>
@@ -9239,7 +9239,7 @@
       </c>
       <c r="F523" s="10"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="4">
         <v>42643</v>
       </c>
@@ -9257,7 +9257,7 @@
       </c>
       <c r="F524" s="10"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="7">
         <v>42643</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>27801819.00006</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="7">
         <v>42643</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>1093319</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A527" s="4">
         <v>42674</v>
       </c>
@@ -9305,7 +9305,7 @@
       </c>
       <c r="F527" s="10"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A528" s="4">
         <v>42674</v>
       </c>
@@ -9323,7 +9323,7 @@
       </c>
       <c r="F528" s="10"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="4">
         <v>42674</v>
       </c>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="F529" s="10"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="7">
         <v>42674</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>30281973.000012003</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="7">
         <v>42674</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>1317886</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A532" s="4">
         <v>42704</v>
       </c>
@@ -9389,7 +9389,7 @@
       </c>
       <c r="F532" s="10"/>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A533" s="4">
         <v>42704</v>
       </c>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="F533" s="10"/>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="4">
         <v>42704</v>
       </c>
@@ -9425,7 +9425,7 @@
       </c>
       <c r="F534" s="10"/>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="7">
         <v>42704</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>29341898.000010002</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="7">
         <v>42704</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>1334842</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A537" s="4">
         <v>42735</v>
       </c>
@@ -9473,7 +9473,7 @@
       </c>
       <c r="F537" s="10"/>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A538" s="4">
         <v>42735</v>
       </c>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="F538" s="10"/>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="4">
         <v>42735</v>
       </c>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="F539" s="10"/>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="7">
         <v>42735</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>27874498.00006</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="7">
         <v>42735</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>1275026</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A542" s="4">
         <v>42766</v>
       </c>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="F542" s="10"/>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A543" s="4">
         <v>42766</v>
       </c>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="F543" s="10"/>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="4">
         <v>42766</v>
       </c>
@@ -9593,7 +9593,7 @@
       </c>
       <c r="F544" s="10"/>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="7">
         <v>42766</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>30451363.000010997</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="7">
         <v>42766</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>1386837</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A547" s="4">
         <v>42794</v>
       </c>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="F547" s="10"/>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A548" s="4">
         <v>42794</v>
       </c>
@@ -9659,7 +9659,7 @@
       </c>
       <c r="F548" s="10"/>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="4">
         <v>42794</v>
       </c>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="F549" s="10"/>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="7">
         <v>42794</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>26764550.999993999</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="7">
         <v>42794</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>1270347</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A552" s="4">
         <v>42825</v>
       </c>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="F552" s="10"/>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A553" s="4">
         <v>42825</v>
       </c>
@@ -9743,7 +9743,7 @@
       </c>
       <c r="F553" s="10"/>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="4">
         <v>42825</v>
       </c>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="F554" s="10"/>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="7">
         <v>42825</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>24856949.000011001</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="7">
         <v>42825</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>994299</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A557" s="4">
         <v>42855</v>
       </c>
@@ -9809,7 +9809,7 @@
       </c>
       <c r="F557" s="10"/>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A558" s="4">
         <v>42855</v>
       </c>
@@ -9827,7 +9827,7 @@
       </c>
       <c r="F558" s="10"/>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="4">
         <v>42855</v>
       </c>
@@ -9845,7 +9845,7 @@
       </c>
       <c r="F559" s="10"/>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="7">
         <v>42855</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>23773493.000018999</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="7">
         <v>42855</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>1006718</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A562" s="4">
         <v>42886</v>
       </c>
@@ -9893,7 +9893,7 @@
       </c>
       <c r="F562" s="10"/>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A563" s="4">
         <v>42886</v>
       </c>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="F563" s="10"/>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="4">
         <v>42886</v>
       </c>
@@ -9929,7 +9929,7 @@
       </c>
       <c r="F564" s="10"/>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="7">
         <v>42886</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>26338320.999960002</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="7">
         <v>42886</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>1133016</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A567" s="4">
         <v>42916</v>
       </c>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="F567" s="10"/>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A568" s="4">
         <v>42916</v>
       </c>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="F568" s="10"/>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="4">
         <v>42916</v>
       </c>
@@ -10013,7 +10013,7 @@
       </c>
       <c r="F569" s="10"/>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="7">
         <v>42916</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>26859513.999966998</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="7">
         <v>42916</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>1211408</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A572" s="4">
         <v>42947</v>
       </c>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="F572" s="10"/>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A573" s="4">
         <v>42947</v>
       </c>
@@ -10079,7 +10079,7 @@
       </c>
       <c r="F573" s="10"/>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="4">
         <v>42947</v>
       </c>
@@ -10097,7 +10097,7 @@
       </c>
       <c r="F574" s="10"/>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="7">
         <v>42947</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>29686410.000049997</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="7">
         <v>42947</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>920473</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A577" s="4">
         <v>42978</v>
       </c>
@@ -10145,7 +10145,7 @@
       </c>
       <c r="F577" s="10"/>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A578" s="4">
         <v>42978</v>
       </c>
@@ -10163,7 +10163,7 @@
       </c>
       <c r="F578" s="10"/>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="4">
         <v>42978</v>
       </c>
@@ -10181,7 +10181,7 @@
       </c>
       <c r="F579" s="10"/>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="7">
         <v>42978</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>30158574.999995995</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="7">
         <v>42978</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>1203341</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A582" s="4">
         <v>43008</v>
       </c>
@@ -10229,7 +10229,7 @@
       </c>
       <c r="F582" s="10"/>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A583" s="4">
         <v>43008</v>
       </c>
@@ -10247,7 +10247,7 @@
       </c>
       <c r="F583" s="10"/>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="4">
         <v>43008</v>
       </c>
@@ -10265,7 +10265,7 @@
       </c>
       <c r="F584" s="10"/>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="7">
         <v>43008</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>27217702.000036001</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="7">
         <v>43008</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>958857</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A587" s="4">
         <v>43039</v>
       </c>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="F587" s="10"/>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A588" s="4">
         <v>43039</v>
       </c>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="F588" s="10"/>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="4">
         <v>43039</v>
       </c>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="F589" s="10"/>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="7">
         <v>43039</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>27484858.000020999</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="7">
         <v>43039</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>1123323</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A592" s="4">
         <v>43069</v>
       </c>
@@ -10397,7 +10397,7 @@
       </c>
       <c r="F592" s="10"/>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A593" s="4">
         <v>43069</v>
       </c>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="F593" s="10"/>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="4">
         <v>43069</v>
       </c>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="F594" s="10"/>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="7">
         <v>43069</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>26341942.999997001</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="7">
         <v>43069</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>1147396</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A597" s="4">
         <v>43100</v>
       </c>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="F597" s="10"/>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A598" s="4">
         <v>43100</v>
       </c>
@@ -10499,7 +10499,7 @@
       </c>
       <c r="F598" s="10"/>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="4">
         <v>43100</v>
       </c>
@@ -10517,7 +10517,7 @@
       </c>
       <c r="F599" s="10"/>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="7">
         <v>43100</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>26144817.999985997</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="7">
         <v>43100</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>1361183</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A602" s="4">
         <v>43131</v>
       </c>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="F602" s="10"/>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A603" s="4">
         <v>43131</v>
       </c>
@@ -10583,7 +10583,7 @@
       </c>
       <c r="F603" s="10"/>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="4">
         <v>43131</v>
       </c>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F604" s="10"/>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="7">
         <v>43131</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>24624899.000062998</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="7">
         <v>43131</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>1354891</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A607" s="4">
         <v>43159</v>
       </c>
@@ -10649,7 +10649,7 @@
       </c>
       <c r="F607" s="10"/>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A608" s="4">
         <v>43159</v>
       </c>
@@ -10667,7 +10667,7 @@
       </c>
       <c r="F608" s="10"/>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="4">
         <v>43159</v>
       </c>
@@ -10685,7 +10685,7 @@
       </c>
       <c r="F609" s="10"/>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="7">
         <v>43159</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>25184555.000026997</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="7">
         <v>43159</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>701497</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A612" s="4">
         <v>43190</v>
       </c>
@@ -10733,7 +10733,7 @@
       </c>
       <c r="F612" s="10"/>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A613" s="4">
         <v>43190</v>
       </c>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="F613" s="10"/>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="4">
         <v>43190</v>
       </c>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="F614" s="10"/>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="7">
         <v>43190</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>25635737.000028998</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="7">
         <v>43190</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>827534</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A617" s="4">
         <v>43220</v>
       </c>
@@ -10817,7 +10817,7 @@
       </c>
       <c r="F617" s="10"/>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A618" s="4">
         <v>43220</v>
       </c>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="F618" s="10"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="4">
         <v>43220</v>
       </c>
@@ -10853,7 +10853,7 @@
       </c>
       <c r="F619" s="10"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="7">
         <v>43220</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>22140801.000011999</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="7">
         <v>43220</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>815363</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A622" s="4">
         <v>43251</v>
       </c>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="F622" s="10"/>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A623" s="4">
         <v>43251</v>
       </c>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="F623" s="10"/>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="4">
         <v>43251</v>
       </c>
@@ -10937,7 +10937,7 @@
       </c>
       <c r="F624" s="10"/>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" s="7">
         <v>43251</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>22503161.999998</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" s="7">
         <v>43251</v>
       </c>
@@ -10978,7 +10978,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10990,7 +10990,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gatsby-site/src/data-graphql/production_volumes.xlsx
+++ b/gatsby-site/src/data-graphql/production_volumes.xlsx
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F626"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A586" workbookViewId="0">
+      <selection activeCell="F608" sqref="F608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10558,7 +10558,7 @@
         <v>7</v>
       </c>
       <c r="D602" s="11">
-        <v>49699117.337888002</v>
+        <v>2</v>
       </c>
       <c r="E602" s="11">
         <v>77677453.465225995</v>

--- a/gatsby-site/src/data-graphql/production_volumes.xlsx
+++ b/gatsby-site/src/data-graphql/production_volumes.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9781909D-9C09-FA43-A06E-F99A03BA6E50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="-1040" yWindow="4640" windowWidth="23040" windowHeight="9200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -151,7 +152,7 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Oil &amp; Gas" xfId="2"/>
+    <cellStyle name="Normal_Oil &amp; Gas" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -242,6 +243,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -277,6 +295,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,24 +487,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F636"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A626" workbookViewId="0">
+      <selection activeCell="F637" sqref="F637"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>39478</v>
       </c>
@@ -507,7 +542,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>39478</v>
       </c>
@@ -525,7 +560,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>39478</v>
       </c>
@@ -541,7 +576,7 @@
         <v>39826705.999980003</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>39478</v>
       </c>
@@ -559,7 +594,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>39478</v>
       </c>
@@ -575,7 +610,7 @@
         <v>2219944</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>39507</v>
       </c>
@@ -593,7 +628,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>39507</v>
       </c>
@@ -611,7 +646,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>39507</v>
       </c>
@@ -627,7 +662,7 @@
         <v>39722690.000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>39507</v>
       </c>
@@ -645,7 +680,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>39507</v>
       </c>
@@ -661,7 +696,7 @@
         <v>2110049</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>39538</v>
       </c>
@@ -679,7 +714,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>39538</v>
       </c>
@@ -697,7 +732,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>39538</v>
       </c>
@@ -713,7 +748,7 @@
         <v>40804536.000020005</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>39538</v>
       </c>
@@ -731,7 +766,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>39538</v>
       </c>
@@ -747,7 +782,7 @@
         <v>2155616</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>39568</v>
       </c>
@@ -765,7 +800,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>39568</v>
       </c>
@@ -783,7 +818,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>39568</v>
       </c>
@@ -799,7 +834,7 @@
         <v>40910901</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>39568</v>
       </c>
@@ -817,7 +852,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>39568</v>
       </c>
@@ -833,7 +868,7 @@
         <v>1898899</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>39599</v>
       </c>
@@ -851,7 +886,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>39599</v>
       </c>
@@ -869,7 +904,7 @@
       </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>39599</v>
       </c>
@@ -885,7 +920,7 @@
         <v>39398953.000050008</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>39599</v>
       </c>
@@ -903,7 +938,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>39599</v>
       </c>
@@ -919,7 +954,7 @@
         <v>1985025</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>39629</v>
       </c>
@@ -937,7 +972,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>39629</v>
       </c>
@@ -955,7 +990,7 @@
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>39629</v>
       </c>
@@ -971,7 +1006,7 @@
         <v>36648691</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>39629</v>
       </c>
@@ -989,7 +1024,7 @@
       </c>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>39629</v>
       </c>
@@ -1005,7 +1040,7 @@
         <v>2325913</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>39660</v>
       </c>
@@ -1023,7 +1058,7 @@
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>39660</v>
       </c>
@@ -1041,7 +1076,7 @@
       </c>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>39660</v>
       </c>
@@ -1057,7 +1092,7 @@
         <v>39415274.000009999</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>39660</v>
       </c>
@@ -1075,7 +1110,7 @@
       </c>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>39660</v>
       </c>
@@ -1091,7 +1126,7 @@
         <v>2640388</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>39691</v>
       </c>
@@ -1109,7 +1144,7 @@
       </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>39691</v>
       </c>
@@ -1127,7 +1162,7 @@
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>39691</v>
       </c>
@@ -1143,7 +1178,7 @@
         <v>42988013.999970004</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>39691</v>
       </c>
@@ -1161,7 +1196,7 @@
       </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>39691</v>
       </c>
@@ -1177,7 +1212,7 @@
         <v>2439253</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>39721</v>
       </c>
@@ -1195,7 +1230,7 @@
       </c>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>39721</v>
       </c>
@@ -1213,7 +1248,7 @@
       </c>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>39721</v>
       </c>
@@ -1229,7 +1264,7 @@
         <v>40421871.000040002</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>39721</v>
       </c>
@@ -1247,7 +1282,7 @@
       </c>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>39721</v>
       </c>
@@ -1263,7 +1298,7 @@
         <v>2387588</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>39752</v>
       </c>
@@ -1281,7 +1316,7 @@
       </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>39752</v>
       </c>
@@ -1299,7 +1334,7 @@
       </c>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>39752</v>
       </c>
@@ -1315,7 +1350,7 @@
         <v>45051205.999996997</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>39752</v>
       </c>
@@ -1333,7 +1368,7 @@
       </c>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>39752</v>
       </c>
@@ -1349,7 +1384,7 @@
         <v>2511635</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>39782</v>
       </c>
@@ -1367,7 +1402,7 @@
       </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>39782</v>
       </c>
@@ -1385,7 +1420,7 @@
       </c>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>39782</v>
       </c>
@@ -1401,7 +1436,7 @@
         <v>42442150.000032</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>39782</v>
       </c>
@@ -1419,7 +1454,7 @@
       </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>39782</v>
       </c>
@@ -1435,7 +1470,7 @@
         <v>2153188</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>39813</v>
       </c>
@@ -1453,7 +1488,7 @@
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>39813</v>
       </c>
@@ -1471,7 +1506,7 @@
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>39813</v>
       </c>
@@ -1487,7 +1522,7 @@
         <v>39493993.999980003</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>39813</v>
       </c>
@@ -1505,7 +1540,7 @@
       </c>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>39813</v>
       </c>
@@ -1521,7 +1556,7 @@
         <v>2125407</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>39844</v>
       </c>
@@ -1539,7 +1574,7 @@
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>39844</v>
       </c>
@@ -1557,7 +1592,7 @@
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>39844</v>
       </c>
@@ -1573,7 +1608,7 @@
         <v>40936176.999949999</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>39844</v>
       </c>
@@ -1591,7 +1626,7 @@
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>39844</v>
       </c>
@@ -1607,7 +1642,7 @@
         <v>2052390</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>39872</v>
       </c>
@@ -1625,7 +1660,7 @@
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>39872</v>
       </c>
@@ -1643,7 +1678,7 @@
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>39872</v>
       </c>
@@ -1659,7 +1694,7 @@
         <v>38145606.000009999</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>39872</v>
       </c>
@@ -1677,7 +1712,7 @@
       </c>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>39872</v>
       </c>
@@ -1693,7 +1728,7 @@
         <v>1804533</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>39903</v>
       </c>
@@ -1711,7 +1746,7 @@
       </c>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>39903</v>
       </c>
@@ -1729,7 +1764,7 @@
       </c>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>39903</v>
       </c>
@@ -1745,7 +1780,7 @@
         <v>38238166.999995999</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>39903</v>
       </c>
@@ -1763,7 +1798,7 @@
       </c>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>39903</v>
       </c>
@@ -1779,7 +1814,7 @@
         <v>2147583</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>39933</v>
       </c>
@@ -1797,7 +1832,7 @@
       </c>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>39933</v>
       </c>
@@ -1815,7 +1850,7 @@
       </c>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>39933</v>
       </c>
@@ -1831,7 +1866,7 @@
         <v>33485662.000050001</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>39933</v>
       </c>
@@ -1849,7 +1884,7 @@
       </c>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>39933</v>
       </c>
@@ -1865,7 +1900,7 @@
         <v>2319185</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>39964</v>
       </c>
@@ -1883,7 +1918,7 @@
       </c>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>39964</v>
       </c>
@@ -1901,7 +1936,7 @@
       </c>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>39964</v>
       </c>
@@ -1917,7 +1952,7 @@
         <v>35278769.999949999</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>39964</v>
       </c>
@@ -1935,7 +1970,7 @@
       </c>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>39964</v>
       </c>
@@ -1951,7 +1986,7 @@
         <v>2234668</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>39994</v>
       </c>
@@ -1969,7 +2004,7 @@
       </c>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>39994</v>
       </c>
@@ -1987,7 +2022,7 @@
       </c>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>39994</v>
       </c>
@@ -2003,7 +2038,7 @@
         <v>32689882.999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>39994</v>
       </c>
@@ -2021,7 +2056,7 @@
       </c>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>39994</v>
       </c>
@@ -2037,7 +2072,7 @@
         <v>2309024</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>40025</v>
       </c>
@@ -2055,7 +2090,7 @@
       </c>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>40025</v>
       </c>
@@ -2073,7 +2108,7 @@
       </c>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>40025</v>
       </c>
@@ -2089,7 +2124,7 @@
         <v>38422435.999994002</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>40025</v>
       </c>
@@ -2107,7 +2142,7 @@
       </c>
       <c r="F95" s="6"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>40025</v>
       </c>
@@ -2123,7 +2158,7 @@
         <v>2345725</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>40056</v>
       </c>
@@ -2141,7 +2176,7 @@
       </c>
       <c r="F97" s="6"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>40056</v>
       </c>
@@ -2159,7 +2194,7 @@
       </c>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>40056</v>
       </c>
@@ -2175,7 +2210,7 @@
         <v>39778093.000009991</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>40056</v>
       </c>
@@ -2193,7 +2228,7 @@
       </c>
       <c r="F100" s="6"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>40056</v>
       </c>
@@ -2209,7 +2244,7 @@
         <v>2209028</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>40086</v>
       </c>
@@ -2227,7 +2262,7 @@
       </c>
       <c r="F102" s="6"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>40086</v>
       </c>
@@ -2245,7 +2280,7 @@
       </c>
       <c r="F103" s="6"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>40086</v>
       </c>
@@ -2261,7 +2296,7 @@
         <v>39392564.000020005</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>40086</v>
       </c>
@@ -2279,7 +2314,7 @@
       </c>
       <c r="F105" s="6"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>40086</v>
       </c>
@@ -2295,7 +2330,7 @@
         <v>2364021</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>40117</v>
       </c>
@@ -2313,7 +2348,7 @@
       </c>
       <c r="F107" s="6"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>40117</v>
       </c>
@@ -2331,7 +2366,7 @@
       </c>
       <c r="F108" s="6"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>40117</v>
       </c>
@@ -2347,7 +2382,7 @@
         <v>38081263.000004999</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>40117</v>
       </c>
@@ -2365,7 +2400,7 @@
       </c>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>40117</v>
       </c>
@@ -2381,7 +2416,7 @@
         <v>1966556</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>40147</v>
       </c>
@@ -2399,7 +2434,7 @@
       </c>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>40147</v>
       </c>
@@ -2417,7 +2452,7 @@
       </c>
       <c r="F113" s="6"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>40147</v>
       </c>
@@ -2433,7 +2468,7 @@
         <v>37614021</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>40147</v>
       </c>
@@ -2451,7 +2486,7 @@
       </c>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>40147</v>
       </c>
@@ -2467,7 +2502,7 @@
         <v>1840979</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>40178</v>
       </c>
@@ -2485,7 +2520,7 @@
       </c>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>40178</v>
       </c>
@@ -2503,7 +2538,7 @@
       </c>
       <c r="F118" s="6"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>40178</v>
       </c>
@@ -2519,7 +2554,7 @@
         <v>36374086.000004001</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>40178</v>
       </c>
@@ -2537,7 +2572,7 @@
       </c>
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>40178</v>
       </c>
@@ -2553,7 +2588,7 @@
         <v>1932698</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>40209</v>
       </c>
@@ -2571,7 +2606,7 @@
       </c>
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>40209</v>
       </c>
@@ -2589,7 +2624,7 @@
       </c>
       <c r="F123" s="6"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>40209</v>
       </c>
@@ -2605,7 +2640,7 @@
         <v>37385869.999970995</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>40209</v>
       </c>
@@ -2623,7 +2658,7 @@
       </c>
       <c r="F125" s="6"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>40209</v>
       </c>
@@ -2639,7 +2674,7 @@
         <v>1612890</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>40237</v>
       </c>
@@ -2657,7 +2692,7 @@
       </c>
       <c r="F127" s="6"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>40237</v>
       </c>
@@ -2675,7 +2710,7 @@
       </c>
       <c r="F128" s="6"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>40237</v>
       </c>
@@ -2691,7 +2726,7 @@
         <v>36431297.000004999</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>40237</v>
       </c>
@@ -2709,7 +2744,7 @@
       </c>
       <c r="F130" s="6"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>40237</v>
       </c>
@@ -2725,7 +2760,7 @@
         <v>1892405</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>40268</v>
       </c>
@@ -2743,7 +2778,7 @@
       </c>
       <c r="F132" s="6"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>40268</v>
       </c>
@@ -2761,7 +2796,7 @@
       </c>
       <c r="F133" s="6"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>40268</v>
       </c>
@@ -2777,7 +2812,7 @@
         <v>39182647.999989994</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>40268</v>
       </c>
@@ -2795,7 +2830,7 @@
       </c>
       <c r="F135" s="6"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>40268</v>
       </c>
@@ -2811,7 +2846,7 @@
         <v>1743062</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>40298</v>
       </c>
@@ -2829,7 +2864,7 @@
       </c>
       <c r="F137" s="6"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>40298</v>
       </c>
@@ -2847,7 +2882,7 @@
       </c>
       <c r="F138" s="6"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>40298</v>
       </c>
@@ -2863,7 +2898,7 @@
         <v>37425070.999959998</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>40298</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="F140" s="6"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>40298</v>
       </c>
@@ -2897,7 +2932,7 @@
         <v>1795669</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>40329</v>
       </c>
@@ -2915,7 +2950,7 @@
       </c>
       <c r="F142" s="6"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>40329</v>
       </c>
@@ -2933,7 +2968,7 @@
       </c>
       <c r="F143" s="6"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>40329</v>
       </c>
@@ -2949,7 +2984,7 @@
         <v>37144603.999960005</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>40329</v>
       </c>
@@ -2967,7 +3002,7 @@
       </c>
       <c r="F145" s="6"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>40329</v>
       </c>
@@ -2983,7 +3018,7 @@
         <v>1742781</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>40359</v>
       </c>
@@ -3001,7 +3036,7 @@
       </c>
       <c r="F147" s="6"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>40359</v>
       </c>
@@ -3019,7 +3054,7 @@
       </c>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>40359</v>
       </c>
@@ -3035,7 +3070,7 @@
         <v>36578040.999989994</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>40359</v>
       </c>
@@ -3053,7 +3088,7 @@
       </c>
       <c r="F150" s="6"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>40359</v>
       </c>
@@ -3069,7 +3104,7 @@
         <v>1582003</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>40390</v>
       </c>
@@ -3087,7 +3122,7 @@
       </c>
       <c r="F152" s="6"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>40390</v>
       </c>
@@ -3105,7 +3140,7 @@
       </c>
       <c r="F153" s="6"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>40390</v>
       </c>
@@ -3121,7 +3156,7 @@
         <v>38135192.999995999</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>40390</v>
       </c>
@@ -3139,7 +3174,7 @@
       </c>
       <c r="F155" s="6"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>40390</v>
       </c>
@@ -3155,7 +3190,7 @@
         <v>1609279</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>40421</v>
       </c>
@@ -3173,7 +3208,7 @@
       </c>
       <c r="F157" s="6"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>40421</v>
       </c>
@@ -3191,7 +3226,7 @@
       </c>
       <c r="F158" s="6"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>40421</v>
       </c>
@@ -3207,7 +3242,7 @@
         <v>41050494</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>40421</v>
       </c>
@@ -3225,7 +3260,7 @@
       </c>
       <c r="F160" s="6"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>40421</v>
       </c>
@@ -3241,7 +3276,7 @@
         <v>1735723</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>40451</v>
       </c>
@@ -3259,7 +3294,7 @@
       </c>
       <c r="F162" s="6"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>40451</v>
       </c>
@@ -3277,7 +3312,7 @@
       </c>
       <c r="F163" s="6"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>40451</v>
       </c>
@@ -3293,7 +3328,7 @@
         <v>40744703.999988005</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>40451</v>
       </c>
@@ -3311,7 +3346,7 @@
       </c>
       <c r="F165" s="6"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>40451</v>
       </c>
@@ -3327,7 +3362,7 @@
         <v>2038643</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>40482</v>
       </c>
@@ -3345,7 +3380,7 @@
       </c>
       <c r="F167" s="6"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>40482</v>
       </c>
@@ -3363,7 +3398,7 @@
       </c>
       <c r="F168" s="6"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>40482</v>
       </c>
@@ -3379,7 +3414,7 @@
         <v>40725641.000029996</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>40482</v>
       </c>
@@ -3397,7 +3432,7 @@
       </c>
       <c r="F170" s="6"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>40482</v>
       </c>
@@ -3413,7 +3448,7 @@
         <v>1795394</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>40512</v>
       </c>
@@ -3431,7 +3466,7 @@
       </c>
       <c r="F172" s="6"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>40512</v>
       </c>
@@ -3449,7 +3484,7 @@
       </c>
       <c r="F173" s="6"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="5">
         <v>40512</v>
       </c>
@@ -3465,7 +3500,7 @@
         <v>32529477.00003</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="5">
         <v>40512</v>
       </c>
@@ -3483,7 +3518,7 @@
       </c>
       <c r="F175" s="6"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="5">
         <v>40512</v>
       </c>
@@ -3499,7 +3534,7 @@
         <v>1605752</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>40543</v>
       </c>
@@ -3517,7 +3552,7 @@
       </c>
       <c r="F177" s="6"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>40543</v>
       </c>
@@ -3535,7 +3570,7 @@
       </c>
       <c r="F178" s="6"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>40543</v>
       </c>
@@ -3551,7 +3586,7 @@
         <v>39561230.999960996</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
         <v>40543</v>
       </c>
@@ -3569,7 +3604,7 @@
       </c>
       <c r="F180" s="6"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>40543</v>
       </c>
@@ -3585,7 +3620,7 @@
         <v>1832658</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
         <v>40574</v>
       </c>
@@ -3603,7 +3638,7 @@
       </c>
       <c r="F182" s="6"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>40574</v>
       </c>
@@ -3621,7 +3656,7 @@
       </c>
       <c r="F183" s="6"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>40574</v>
       </c>
@@ -3637,7 +3672,7 @@
         <v>39876734.000018999</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>40574</v>
       </c>
@@ -3655,7 +3690,7 @@
       </c>
       <c r="F185" s="6"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>40574</v>
       </c>
@@ -3671,7 +3706,7 @@
         <v>2253425</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>40602</v>
       </c>
@@ -3689,7 +3724,7 @@
       </c>
       <c r="F187" s="6"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>40602</v>
       </c>
@@ -3707,7 +3742,7 @@
       </c>
       <c r="F188" s="6"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>40602</v>
       </c>
@@ -3723,7 +3758,7 @@
         <v>33558869.000053003</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>40602</v>
       </c>
@@ -3741,7 +3776,7 @@
       </c>
       <c r="F190" s="6"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="5">
         <v>40602</v>
       </c>
@@ -3757,7 +3792,7 @@
         <v>1494323</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="5">
         <v>40633</v>
       </c>
@@ -3775,7 +3810,7 @@
       </c>
       <c r="F192" s="6"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>40633</v>
       </c>
@@ -3793,7 +3828,7 @@
       </c>
       <c r="F193" s="6"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>40633</v>
       </c>
@@ -3809,7 +3844,7 @@
         <v>40399121.000049002</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>40633</v>
       </c>
@@ -3827,7 +3862,7 @@
       </c>
       <c r="F195" s="6"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>40633</v>
       </c>
@@ -3843,7 +3878,7 @@
         <v>1772654</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>40663</v>
       </c>
@@ -3861,7 +3896,7 @@
       </c>
       <c r="F197" s="6"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>40663</v>
       </c>
@@ -3879,7 +3914,7 @@
       </c>
       <c r="F198" s="6"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>40663</v>
       </c>
@@ -3895,7 +3930,7 @@
         <v>37740771.999983996</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>40663</v>
       </c>
@@ -3913,7 +3948,7 @@
       </c>
       <c r="F200" s="6"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>40663</v>
       </c>
@@ -3929,7 +3964,7 @@
         <v>1684420</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>40694</v>
       </c>
@@ -3947,7 +3982,7 @@
       </c>
       <c r="F202" s="6"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>40694</v>
       </c>
@@ -3965,7 +4000,7 @@
       </c>
       <c r="F203" s="6"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
         <v>40694</v>
       </c>
@@ -3981,7 +4016,7 @@
         <v>36119046.999949001</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
         <v>40694</v>
       </c>
@@ -3999,7 +4034,7 @@
       </c>
       <c r="F205" s="6"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
         <v>40694</v>
       </c>
@@ -4015,7 +4050,7 @@
         <v>1936675</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="5">
         <v>40724</v>
       </c>
@@ -4033,7 +4068,7 @@
       </c>
       <c r="F207" s="6"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
         <v>40724</v>
       </c>
@@ -4051,7 +4086,7 @@
       </c>
       <c r="F208" s="6"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="5">
         <v>40724</v>
       </c>
@@ -4067,7 +4102,7 @@
         <v>33705453.000010997</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="5">
         <v>40724</v>
       </c>
@@ -4085,7 +4120,7 @@
       </c>
       <c r="F210" s="6"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="5">
         <v>40724</v>
       </c>
@@ -4101,7 +4136,7 @@
         <v>1973047</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="5">
         <v>40755</v>
       </c>
@@ -4119,7 +4154,7 @@
       </c>
       <c r="F212" s="6"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="5">
         <v>40755</v>
       </c>
@@ -4137,7 +4172,7 @@
       </c>
       <c r="F213" s="6"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="5">
         <v>40755</v>
       </c>
@@ -4153,7 +4188,7 @@
         <v>32683729.000023998</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="5">
         <v>40755</v>
       </c>
@@ -4171,7 +4206,7 @@
       </c>
       <c r="F215" s="6"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="5">
         <v>40755</v>
       </c>
@@ -4187,7 +4222,7 @@
         <v>1889907</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="5">
         <v>40786</v>
       </c>
@@ -4205,7 +4240,7 @@
       </c>
       <c r="F217" s="6"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="5">
         <v>40786</v>
       </c>
@@ -4223,7 +4258,7 @@
       </c>
       <c r="F218" s="6"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="5">
         <v>40786</v>
       </c>
@@ -4239,7 +4274,7 @@
         <v>37915804.000053003</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="5">
         <v>40786</v>
       </c>
@@ -4257,7 +4292,7 @@
       </c>
       <c r="F220" s="6"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="5">
         <v>40786</v>
       </c>
@@ -4273,7 +4308,7 @@
         <v>1454592</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="5">
         <v>40816</v>
       </c>
@@ -4291,7 +4326,7 @@
       </c>
       <c r="F222" s="6"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="5">
         <v>40816</v>
       </c>
@@ -4309,7 +4344,7 @@
       </c>
       <c r="F223" s="6"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="5">
         <v>40816</v>
       </c>
@@ -4325,7 +4360,7 @@
         <v>37324002.999986</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="5">
         <v>40816</v>
       </c>
@@ -4343,7 +4378,7 @@
       </c>
       <c r="F225" s="6"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="5">
         <v>40816</v>
       </c>
@@ -4359,7 +4394,7 @@
         <v>1698967</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="5">
         <v>40847</v>
       </c>
@@ -4377,7 +4412,7 @@
       </c>
       <c r="F227" s="6"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="5">
         <v>40847</v>
       </c>
@@ -4395,7 +4430,7 @@
       </c>
       <c r="F228" s="6"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="5">
         <v>40847</v>
       </c>
@@ -4411,7 +4446,7 @@
         <v>40660412.000007994</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="5">
         <v>40847</v>
       </c>
@@ -4429,7 +4464,7 @@
       </c>
       <c r="F230" s="6"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="5">
         <v>40847</v>
       </c>
@@ -4445,7 +4480,7 @@
         <v>2034208</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="5">
         <v>40877</v>
       </c>
@@ -4463,7 +4498,7 @@
       </c>
       <c r="F232" s="6"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="5">
         <v>40877</v>
       </c>
@@ -4481,7 +4516,7 @@
       </c>
       <c r="F233" s="6"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="5">
         <v>40877</v>
       </c>
@@ -4497,7 +4532,7 @@
         <v>40681393.999998994</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="5">
         <v>40877</v>
       </c>
@@ -4515,7 +4550,7 @@
       </c>
       <c r="F235" s="6"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="5">
         <v>40877</v>
       </c>
@@ -4531,7 +4566,7 @@
         <v>1886110</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="5">
         <v>40908</v>
       </c>
@@ -4549,7 +4584,7 @@
       </c>
       <c r="F237" s="6"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="5">
         <v>40908</v>
       </c>
@@ -4567,7 +4602,7 @@
       </c>
       <c r="F238" s="6"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="5">
         <v>40908</v>
       </c>
@@ -4583,7 +4618,7 @@
         <v>41213621.999972999</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="5">
         <v>40908</v>
       </c>
@@ -4601,7 +4636,7 @@
       </c>
       <c r="F240" s="6"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="5">
         <v>40908</v>
       </c>
@@ -4617,7 +4652,7 @@
         <v>1235289</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="5">
         <v>40939</v>
       </c>
@@ -4635,7 +4670,7 @@
       </c>
       <c r="F242" s="6"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="5">
         <v>40939</v>
       </c>
@@ -4653,7 +4688,7 @@
       </c>
       <c r="F243" s="6"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="5">
         <v>40939</v>
       </c>
@@ -4669,7 +4704,7 @@
         <v>39621589.000091001</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="5">
         <v>40939</v>
       </c>
@@ -4687,7 +4722,7 @@
       </c>
       <c r="F245" s="6"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="5">
         <v>40939</v>
       </c>
@@ -4703,7 +4738,7 @@
         <v>1981835</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="5">
         <v>40968</v>
       </c>
@@ -4721,7 +4756,7 @@
       </c>
       <c r="F247" s="6"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="5">
         <v>40968</v>
       </c>
@@ -4739,7 +4774,7 @@
       </c>
       <c r="F248" s="6"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="5">
         <v>40968</v>
       </c>
@@ -4755,7 +4790,7 @@
         <v>36249605.000028998</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="5">
         <v>40968</v>
       </c>
@@ -4773,7 +4808,7 @@
       </c>
       <c r="F250" s="6"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="5">
         <v>40968</v>
       </c>
@@ -4789,7 +4824,7 @@
         <v>1848570</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="5">
         <v>40999</v>
       </c>
@@ -4807,7 +4842,7 @@
       </c>
       <c r="F252" s="6"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="5">
         <v>40999</v>
       </c>
@@ -4825,7 +4860,7 @@
       </c>
       <c r="F253" s="6"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="5">
         <v>40999</v>
       </c>
@@ -4841,7 +4876,7 @@
         <v>32908329.000047002</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="5">
         <v>40999</v>
       </c>
@@ -4859,7 +4894,7 @@
       </c>
       <c r="F255" s="6"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="5">
         <v>40999</v>
       </c>
@@ -4875,7 +4910,7 @@
         <v>1930970</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="5">
         <v>41029</v>
       </c>
@@ -4893,7 +4928,7 @@
       </c>
       <c r="F257" s="6"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="5">
         <v>41029</v>
       </c>
@@ -4911,7 +4946,7 @@
       </c>
       <c r="F258" s="6"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="5">
         <v>41029</v>
       </c>
@@ -4927,7 +4962,7 @@
         <v>29041031.999981005</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="5">
         <v>41029</v>
       </c>
@@ -4945,7 +4980,7 @@
       </c>
       <c r="F260" s="6"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="5">
         <v>41029</v>
       </c>
@@ -4961,7 +4996,7 @@
         <v>1386877</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="5">
         <v>41060</v>
       </c>
@@ -4979,7 +5014,7 @@
       </c>
       <c r="F262" s="6"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
         <v>41060</v>
       </c>
@@ -4997,7 +5032,7 @@
       </c>
       <c r="F263" s="6"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="5">
         <v>41060</v>
       </c>
@@ -5013,7 +5048,7 @@
         <v>31329856.000045005</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="5">
         <v>41060</v>
       </c>
@@ -5031,7 +5066,7 @@
       </c>
       <c r="F265" s="6"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="5">
         <v>41060</v>
       </c>
@@ -5047,7 +5082,7 @@
         <v>1625737</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="5">
         <v>41090</v>
       </c>
@@ -5065,7 +5100,7 @@
       </c>
       <c r="F267" s="6"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="5">
         <v>41090</v>
       </c>
@@ -5083,7 +5118,7 @@
       </c>
       <c r="F268" s="6"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="5">
         <v>41090</v>
       </c>
@@ -5099,7 +5134,7 @@
         <v>32317862.000014003</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="5">
         <v>41090</v>
       </c>
@@ -5117,7 +5152,7 @@
       </c>
       <c r="F270" s="6"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="5">
         <v>41090</v>
       </c>
@@ -5133,7 +5168,7 @@
         <v>1568194</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="5">
         <v>41121</v>
       </c>
@@ -5151,7 +5186,7 @@
       </c>
       <c r="F272" s="6"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="5">
         <v>41121</v>
       </c>
@@ -5169,7 +5204,7 @@
       </c>
       <c r="F273" s="6"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="5">
         <v>41121</v>
       </c>
@@ -5185,7 +5220,7 @@
         <v>39360710.000061996</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>41121</v>
       </c>
@@ -5203,7 +5238,7 @@
       </c>
       <c r="F275" s="6"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>41121</v>
       </c>
@@ -5219,7 +5254,7 @@
         <v>1447117</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>41152</v>
       </c>
@@ -5237,7 +5272,7 @@
       </c>
       <c r="F277" s="6"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>41152</v>
       </c>
@@ -5255,7 +5290,7 @@
       </c>
       <c r="F278" s="6"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>41152</v>
       </c>
@@ -5271,7 +5306,7 @@
         <v>40126533.000030003</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>41152</v>
       </c>
@@ -5289,7 +5324,7 @@
       </c>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>41152</v>
       </c>
@@ -5305,7 +5340,7 @@
         <v>1468942</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>41182</v>
       </c>
@@ -5323,7 +5358,7 @@
       </c>
       <c r="F282" s="6"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>41182</v>
       </c>
@@ -5341,7 +5376,7 @@
       </c>
       <c r="F283" s="6"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>41182</v>
       </c>
@@ -5357,7 +5392,7 @@
         <v>37476124.000042006</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>41182</v>
       </c>
@@ -5375,7 +5410,7 @@
       </c>
       <c r="F285" s="6"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>41182</v>
       </c>
@@ -5391,7 +5426,7 @@
         <v>1427953</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>41213</v>
       </c>
@@ -5409,7 +5444,7 @@
       </c>
       <c r="F287" s="6"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>41213</v>
       </c>
@@ -5427,7 +5462,7 @@
       </c>
       <c r="F288" s="6"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="5">
         <v>41213</v>
       </c>
@@ -5443,7 +5478,7 @@
         <v>35275147.999958999</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="5">
         <v>41213</v>
       </c>
@@ -5461,7 +5496,7 @@
       </c>
       <c r="F290" s="6"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="5">
         <v>41213</v>
       </c>
@@ -5477,7 +5512,7 @@
         <v>1746130</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="5">
         <v>41243</v>
       </c>
@@ -5495,7 +5530,7 @@
       </c>
       <c r="F292" s="6"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="5">
         <v>41243</v>
       </c>
@@ -5513,7 +5548,7 @@
       </c>
       <c r="F293" s="6"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="5">
         <v>41243</v>
       </c>
@@ -5529,7 +5564,7 @@
         <v>36099698.000044003</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="5">
         <v>41243</v>
       </c>
@@ -5547,7 +5582,7 @@
       </c>
       <c r="F295" s="6"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="5">
         <v>41243</v>
       </c>
@@ -5563,7 +5598,7 @@
         <v>1340397</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="5">
         <v>41274</v>
       </c>
@@ -5581,7 +5616,7 @@
       </c>
       <c r="F297" s="6"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="5">
         <v>41274</v>
       </c>
@@ -5599,7 +5634,7 @@
       </c>
       <c r="F298" s="6"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="5">
         <v>41274</v>
       </c>
@@ -5615,7 +5650,7 @@
         <v>32703305.000016998</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="5">
         <v>41274</v>
       </c>
@@ -5633,7 +5668,7 @@
       </c>
       <c r="F300" s="6"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="5">
         <v>41274</v>
       </c>
@@ -5649,7 +5684,7 @@
         <v>1058533</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="5">
         <v>41305</v>
       </c>
@@ -5667,7 +5702,7 @@
       </c>
       <c r="F302" s="6"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="5">
         <v>41305</v>
       </c>
@@ -5685,7 +5720,7 @@
       </c>
       <c r="F303" s="6"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="5">
         <v>41305</v>
       </c>
@@ -5701,7 +5736,7 @@
         <v>33492409.999940004</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="5">
         <v>41305</v>
       </c>
@@ -5719,7 +5754,7 @@
       </c>
       <c r="F305" s="6"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="5">
         <v>41305</v>
       </c>
@@ -5735,7 +5770,7 @@
         <v>1414729</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="5">
         <v>41333</v>
       </c>
@@ -5753,7 +5788,7 @@
       </c>
       <c r="F307" s="6"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="5">
         <v>41333</v>
       </c>
@@ -5771,7 +5806,7 @@
       </c>
       <c r="F308" s="6"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="5">
         <v>41333</v>
       </c>
@@ -5787,7 +5822,7 @@
         <v>30481388.000002</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="5">
         <v>41333</v>
       </c>
@@ -5805,7 +5840,7 @@
       </c>
       <c r="F310" s="6"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="5">
         <v>41333</v>
       </c>
@@ -5821,7 +5856,7 @@
         <v>1722483</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="5">
         <v>41364</v>
       </c>
@@ -5839,7 +5874,7 @@
       </c>
       <c r="F312" s="6"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="5">
         <v>41364</v>
       </c>
@@ -5857,7 +5892,7 @@
       </c>
       <c r="F313" s="6"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="5">
         <v>41364</v>
       </c>
@@ -5873,7 +5908,7 @@
         <v>31554257.999979999</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="5">
         <v>41364</v>
       </c>
@@ -5891,7 +5926,7 @@
       </c>
       <c r="F315" s="6"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="5">
         <v>41364</v>
       </c>
@@ -5907,7 +5942,7 @@
         <v>1601392</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="5">
         <v>41394</v>
       </c>
@@ -5925,7 +5960,7 @@
       </c>
       <c r="F317" s="6"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="5">
         <v>41394</v>
       </c>
@@ -5943,7 +5978,7 @@
       </c>
       <c r="F318" s="6"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="5">
         <v>41394</v>
       </c>
@@ -5959,7 +5994,7 @@
         <v>30641951.000064</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="5">
         <v>41394</v>
       </c>
@@ -5977,7 +6012,7 @@
       </c>
       <c r="F320" s="6"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="5">
         <v>41394</v>
       </c>
@@ -5993,7 +6028,7 @@
         <v>1775937</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="5">
         <v>41425</v>
       </c>
@@ -6011,7 +6046,7 @@
       </c>
       <c r="F322" s="6"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="5">
         <v>41425</v>
       </c>
@@ -6029,7 +6064,7 @@
       </c>
       <c r="F323" s="6"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="5">
         <v>41425</v>
       </c>
@@ -6045,7 +6080,7 @@
         <v>32892522.000001002</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="5">
         <v>41425</v>
       </c>
@@ -6063,7 +6098,7 @@
       </c>
       <c r="F325" s="6"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="5">
         <v>41425</v>
       </c>
@@ -6079,7 +6114,7 @@
         <v>1231695</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="5">
         <v>41455</v>
       </c>
@@ -6097,7 +6132,7 @@
       </c>
       <c r="F327" s="6"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="5">
         <v>41455</v>
       </c>
@@ -6115,7 +6150,7 @@
       </c>
       <c r="F328" s="6"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="5">
         <v>41455</v>
       </c>
@@ -6131,7 +6166,7 @@
         <v>32945999.000050001</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="5">
         <v>41455</v>
       </c>
@@ -6149,7 +6184,7 @@
       </c>
       <c r="F330" s="6"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="5">
         <v>41455</v>
       </c>
@@ -6165,7 +6200,7 @@
         <v>1464335</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="5">
         <v>41486</v>
       </c>
@@ -6183,7 +6218,7 @@
       </c>
       <c r="F332" s="6"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="5">
         <v>41486</v>
       </c>
@@ -6201,7 +6236,7 @@
       </c>
       <c r="F333" s="6"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="5">
         <v>41486</v>
       </c>
@@ -6217,7 +6252,7 @@
         <v>35878381.999975003</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="5">
         <v>41486</v>
       </c>
@@ -6235,7 +6270,7 @@
       </c>
       <c r="F335" s="6"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="5">
         <v>41486</v>
       </c>
@@ -6251,7 +6286,7 @@
         <v>1548969</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="5">
         <v>41517</v>
       </c>
@@ -6269,7 +6304,7 @@
       </c>
       <c r="F337" s="6"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="5">
         <v>41517</v>
       </c>
@@ -6287,7 +6322,7 @@
       </c>
       <c r="F338" s="6"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="5">
         <v>41517</v>
       </c>
@@ -6303,7 +6338,7 @@
         <v>36459087.000052005</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="5">
         <v>41517</v>
       </c>
@@ -6321,7 +6356,7 @@
       </c>
       <c r="F340" s="6"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="5">
         <v>41517</v>
       </c>
@@ -6337,7 +6372,7 @@
         <v>1719610</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="5">
         <v>41547</v>
       </c>
@@ -6355,7 +6390,7 @@
       </c>
       <c r="F342" s="6"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="5">
         <v>41547</v>
       </c>
@@ -6373,7 +6408,7 @@
       </c>
       <c r="F343" s="6"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="5">
         <v>41547</v>
       </c>
@@ -6389,7 +6424,7 @@
         <v>35116077.999974996</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="5">
         <v>41547</v>
       </c>
@@ -6407,7 +6442,7 @@
       </c>
       <c r="F345" s="6"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="5">
         <v>41547</v>
       </c>
@@ -6423,7 +6458,7 @@
         <v>1632862</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="5">
         <v>41578</v>
       </c>
@@ -6441,7 +6476,7 @@
       </c>
       <c r="F347" s="6"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="5">
         <v>41578</v>
       </c>
@@ -6459,7 +6494,7 @@
       </c>
       <c r="F348" s="6"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="5">
         <v>41578</v>
       </c>
@@ -6475,7 +6510,7 @@
         <v>32376033.999970004</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="5">
         <v>41578</v>
       </c>
@@ -6493,7 +6528,7 @@
       </c>
       <c r="F350" s="6"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="5">
         <v>41578</v>
       </c>
@@ -6509,7 +6544,7 @@
         <v>1750278</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="5">
         <v>41608</v>
       </c>
@@ -6527,7 +6562,7 @@
       </c>
       <c r="F352" s="6"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="5">
         <v>41608</v>
       </c>
@@ -6545,7 +6580,7 @@
       </c>
       <c r="F353" s="6"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="5">
         <v>41608</v>
       </c>
@@ -6561,7 +6596,7 @@
         <v>33665424.000035003</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="5">
         <v>41608</v>
       </c>
@@ -6579,7 +6614,7 @@
       </c>
       <c r="F355" s="6"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="5">
         <v>41608</v>
       </c>
@@ -6595,7 +6630,7 @@
         <v>1970620</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="5">
         <v>41639</v>
       </c>
@@ -6613,7 +6648,7 @@
       </c>
       <c r="F357" s="6"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="5">
         <v>41639</v>
       </c>
@@ -6631,7 +6666,7 @@
       </c>
       <c r="F358" s="6"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="5">
         <v>41639</v>
       </c>
@@ -6647,7 +6682,7 @@
         <v>32510560.999957003</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="5">
         <v>41639</v>
       </c>
@@ -6665,7 +6700,7 @@
       </c>
       <c r="F360" s="6"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="5">
         <v>41639</v>
       </c>
@@ -6681,7 +6716,7 @@
         <v>1894694</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="5">
         <v>41670</v>
       </c>
@@ -6699,7 +6734,7 @@
       </c>
       <c r="F362" s="6"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="5">
         <v>41670</v>
       </c>
@@ -6717,7 +6752,7 @@
       </c>
       <c r="F363" s="6"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="5">
         <v>41670</v>
       </c>
@@ -6733,7 +6768,7 @@
         <v>34790955.000010006</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="5">
         <v>41670</v>
       </c>
@@ -6751,7 +6786,7 @@
       </c>
       <c r="F365" s="6"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="5">
         <v>41670</v>
       </c>
@@ -6767,7 +6802,7 @@
         <v>1757529</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="5">
         <v>41698</v>
       </c>
@@ -6785,7 +6820,7 @@
       </c>
       <c r="F367" s="6"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="5">
         <v>41698</v>
       </c>
@@ -6803,7 +6838,7 @@
       </c>
       <c r="F368" s="6"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="5">
         <v>41698</v>
       </c>
@@ -6819,7 +6854,7 @@
         <v>29682030.000037</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="5">
         <v>41698</v>
       </c>
@@ -6837,7 +6872,7 @@
       </c>
       <c r="F370" s="6"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="5">
         <v>41698</v>
       </c>
@@ -6853,7 +6888,7 @@
         <v>1485922</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="5">
         <v>41729</v>
       </c>
@@ -6871,7 +6906,7 @@
       </c>
       <c r="F372" s="6"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="5">
         <v>41729</v>
       </c>
@@ -6889,7 +6924,7 @@
       </c>
       <c r="F373" s="6"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="5">
         <v>41729</v>
       </c>
@@ -6905,7 +6940,7 @@
         <v>34623327.000015005</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="5">
         <v>41729</v>
       </c>
@@ -6923,7 +6958,7 @@
       </c>
       <c r="F375" s="6"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="5">
         <v>41729</v>
       </c>
@@ -6939,7 +6974,7 @@
         <v>1998634</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="5">
         <v>41759</v>
       </c>
@@ -6957,7 +6992,7 @@
       </c>
       <c r="F377" s="6"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="5">
         <v>41759</v>
       </c>
@@ -6975,7 +7010,7 @@
       </c>
       <c r="F378" s="6"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="5">
         <v>41759</v>
       </c>
@@ -6991,7 +7026,7 @@
         <v>32988347.999998</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="5">
         <v>41759</v>
       </c>
@@ -7009,7 +7044,7 @@
       </c>
       <c r="F380" s="6"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="5">
         <v>41759</v>
       </c>
@@ -7025,7 +7060,7 @@
         <v>1820690</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="5">
         <v>41790</v>
       </c>
@@ -7043,7 +7078,7 @@
       </c>
       <c r="F382" s="6"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="5">
         <v>41790</v>
       </c>
@@ -7061,7 +7096,7 @@
       </c>
       <c r="F383" s="6"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="5">
         <v>41790</v>
       </c>
@@ -7077,7 +7112,7 @@
         <v>34429428.000032999</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>41790</v>
       </c>
@@ -7095,7 +7130,7 @@
       </c>
       <c r="F385" s="6"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="5">
         <v>41790</v>
       </c>
@@ -7111,7 +7146,7 @@
         <v>1935957</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="5">
         <v>41820</v>
       </c>
@@ -7129,7 +7164,7 @@
       </c>
       <c r="F387" s="6"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="5">
         <v>41820</v>
       </c>
@@ -7147,7 +7182,7 @@
       </c>
       <c r="F388" s="6"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="5">
         <v>41820</v>
       </c>
@@ -7163,7 +7198,7 @@
         <v>33330149.999963</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="5">
         <v>41820</v>
       </c>
@@ -7181,7 +7216,7 @@
       </c>
       <c r="F390" s="6"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="5">
         <v>41820</v>
       </c>
@@ -7197,7 +7232,7 @@
         <v>1138596</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="5">
         <v>41851</v>
       </c>
@@ -7215,7 +7250,7 @@
       </c>
       <c r="F392" s="6"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="5">
         <v>41851</v>
       </c>
@@ -7233,7 +7268,7 @@
       </c>
       <c r="F393" s="6"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="5">
         <v>41851</v>
       </c>
@@ -7249,7 +7284,7 @@
         <v>35490508.999975994</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>41851</v>
       </c>
@@ -7267,7 +7302,7 @@
       </c>
       <c r="F395" s="6"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>41851</v>
       </c>
@@ -7283,7 +7318,7 @@
         <v>1683686</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>41882</v>
       </c>
@@ -7301,7 +7336,7 @@
       </c>
       <c r="F397" s="6"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>41882</v>
       </c>
@@ -7319,7 +7354,7 @@
       </c>
       <c r="F398" s="6"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>41882</v>
       </c>
@@ -7335,7 +7370,7 @@
         <v>36037152.999962002</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>41882</v>
       </c>
@@ -7353,7 +7388,7 @@
       </c>
       <c r="F400" s="6"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>41882</v>
       </c>
@@ -7369,7 +7404,7 @@
         <v>1750222</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>41912</v>
       </c>
@@ -7387,7 +7422,7 @@
       </c>
       <c r="F402" s="6"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>41912</v>
       </c>
@@ -7405,7 +7440,7 @@
       </c>
       <c r="F403" s="6"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>41912</v>
       </c>
@@ -7421,7 +7456,7 @@
         <v>32763628.999964003</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>41912</v>
       </c>
@@ -7439,7 +7474,7 @@
       </c>
       <c r="F405" s="6"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>41912</v>
       </c>
@@ -7455,7 +7490,7 @@
         <v>1690498</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>41943</v>
       </c>
@@ -7473,7 +7508,7 @@
       </c>
       <c r="F407" s="6"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>41943</v>
       </c>
@@ -7491,7 +7526,7 @@
       </c>
       <c r="F408" s="6"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>41943</v>
       </c>
@@ -7507,7 +7542,7 @@
         <v>35706814.999958992</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>41943</v>
       </c>
@@ -7525,7 +7560,7 @@
       </c>
       <c r="F410" s="6"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>41943</v>
       </c>
@@ -7541,7 +7576,7 @@
         <v>1618495</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>41973</v>
       </c>
@@ -7559,7 +7594,7 @@
       </c>
       <c r="F412" s="6"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>41973</v>
       </c>
@@ -7577,7 +7612,7 @@
       </c>
       <c r="F413" s="6"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>41973</v>
       </c>
@@ -7593,7 +7628,7 @@
         <v>34749343.000023998</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>41973</v>
       </c>
@@ -7611,7 +7646,7 @@
       </c>
       <c r="F415" s="6"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>41973</v>
       </c>
@@ -7627,7 +7662,7 @@
         <v>1438145</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>42004</v>
       </c>
@@ -7645,7 +7680,7 @@
       </c>
       <c r="F417" s="6"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>42004</v>
       </c>
@@ -7663,7 +7698,7 @@
       </c>
       <c r="F418" s="6"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="5">
         <v>42004</v>
       </c>
@@ -7679,7 +7714,7 @@
         <v>34896403.000053003</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="5">
         <v>42004</v>
       </c>
@@ -7697,7 +7732,7 @@
       </c>
       <c r="F420" s="6"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" s="5">
         <v>42004</v>
       </c>
@@ -7713,7 +7748,7 @@
         <v>1610645</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>42035</v>
       </c>
@@ -7731,7 +7766,7 @@
       </c>
       <c r="F422" s="6"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>42035</v>
       </c>
@@ -7749,7 +7784,7 @@
       </c>
       <c r="F423" s="6"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>42035</v>
       </c>
@@ -7765,7 +7800,7 @@
         <v>35837786.000030003</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>42035</v>
       </c>
@@ -7783,7 +7818,7 @@
       </c>
       <c r="F425" s="6"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>42035</v>
       </c>
@@ -7799,7 +7834,7 @@
         <v>1534367</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>42063</v>
       </c>
@@ -7817,7 +7852,7 @@
       </c>
       <c r="F427" s="6"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>42063</v>
       </c>
@@ -7835,7 +7870,7 @@
       </c>
       <c r="F428" s="6"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>42063</v>
       </c>
@@ -7851,7 +7886,7 @@
         <v>30718491.999961004</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>42063</v>
       </c>
@@ -7869,7 +7904,7 @@
       </c>
       <c r="F430" s="6"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>42063</v>
       </c>
@@ -7885,7 +7920,7 @@
         <v>1558406</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>42094</v>
       </c>
@@ -7903,7 +7938,7 @@
       </c>
       <c r="F432" s="6"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>42094</v>
       </c>
@@ -7921,7 +7956,7 @@
       </c>
       <c r="F433" s="6"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>42094</v>
       </c>
@@ -7937,7 +7972,7 @@
         <v>32855558.000018999</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>42094</v>
       </c>
@@ -7955,7 +7990,7 @@
       </c>
       <c r="F435" s="6"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>42094</v>
       </c>
@@ -7971,7 +8006,7 @@
         <v>1441836</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>42124</v>
       </c>
@@ -7989,7 +8024,7 @@
       </c>
       <c r="F437" s="6"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>42124</v>
       </c>
@@ -8007,7 +8042,7 @@
       </c>
       <c r="F438" s="6"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>42124</v>
       </c>
@@ -8023,7 +8058,7 @@
         <v>28846111.000014998</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>42124</v>
       </c>
@@ -8041,7 +8076,7 @@
       </c>
       <c r="F440" s="6"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>42124</v>
       </c>
@@ -8057,7 +8092,7 @@
         <v>1541307</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>42155</v>
       </c>
@@ -8075,7 +8110,7 @@
       </c>
       <c r="F442" s="6"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>42155</v>
       </c>
@@ -8093,7 +8128,7 @@
       </c>
       <c r="F443" s="6"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>42155</v>
       </c>
@@ -8109,7 +8144,7 @@
         <v>27400394.000018001</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>42155</v>
       </c>
@@ -8127,7 +8162,7 @@
       </c>
       <c r="F445" s="6"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>42155</v>
       </c>
@@ -8143,7 +8178,7 @@
         <v>1799151</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>42185</v>
       </c>
@@ -8161,7 +8196,7 @@
       </c>
       <c r="F447" s="6"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>42185</v>
       </c>
@@ -8179,7 +8214,7 @@
       </c>
       <c r="F448" s="6"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>42185</v>
       </c>
@@ -8195,7 +8230,7 @@
         <v>28418281.999994002</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="5">
         <v>42185</v>
       </c>
@@ -8213,7 +8248,7 @@
       </c>
       <c r="F450" s="6"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>42185</v>
       </c>
@@ -8229,7 +8264,7 @@
         <v>1698264</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>42216</v>
       </c>
@@ -8247,7 +8282,7 @@
       </c>
       <c r="F452" s="6"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>42216</v>
       </c>
@@ -8265,7 +8300,7 @@
       </c>
       <c r="F453" s="6"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>42216</v>
       </c>
@@ -8281,7 +8316,7 @@
         <v>32434763.000008002</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" s="5">
         <v>42216</v>
       </c>
@@ -8299,7 +8334,7 @@
       </c>
       <c r="F455" s="6"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>42216</v>
       </c>
@@ -8315,7 +8350,7 @@
         <v>1528851</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>42247</v>
       </c>
@@ -8333,7 +8368,7 @@
       </c>
       <c r="F457" s="6"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>42247</v>
       </c>
@@ -8351,7 +8386,7 @@
       </c>
       <c r="F458" s="6"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>42247</v>
       </c>
@@ -8367,7 +8402,7 @@
         <v>35097309.000054009</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>42247</v>
       </c>
@@ -8385,7 +8420,7 @@
       </c>
       <c r="F460" s="6"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" s="5">
         <v>42247</v>
       </c>
@@ -8401,7 +8436,7 @@
         <v>1671527</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>42277</v>
       </c>
@@ -8419,7 +8454,7 @@
       </c>
       <c r="F462" s="6"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>42277</v>
       </c>
@@ -8437,7 +8472,7 @@
       </c>
       <c r="F463" s="6"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>42277</v>
       </c>
@@ -8453,7 +8488,7 @@
         <v>32645633.000014003</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>42277</v>
       </c>
@@ -8471,7 +8506,7 @@
       </c>
       <c r="F465" s="6"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>42277</v>
       </c>
@@ -8487,7 +8522,7 @@
         <v>1660818</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>42308</v>
       </c>
@@ -8505,7 +8540,7 @@
       </c>
       <c r="F467" s="6"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>42308</v>
       </c>
@@ -8523,7 +8558,7 @@
       </c>
       <c r="F468" s="6"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>42308</v>
       </c>
@@ -8539,7 +8574,7 @@
         <v>34933374.000005998</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>42308</v>
       </c>
@@ -8557,7 +8592,7 @@
       </c>
       <c r="F470" s="6"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>42308</v>
       </c>
@@ -8573,7 +8608,7 @@
         <v>1590550</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>42338</v>
       </c>
@@ -8591,7 +8626,7 @@
       </c>
       <c r="F472" s="6"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>42338</v>
       </c>
@@ -8609,7 +8644,7 @@
       </c>
       <c r="F473" s="6"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>42338</v>
       </c>
@@ -8625,7 +8660,7 @@
         <v>31907688.999956001</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>42338</v>
       </c>
@@ -8643,7 +8678,7 @@
       </c>
       <c r="F475" s="6"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>42338</v>
       </c>
@@ -8659,7 +8694,7 @@
         <v>1236781</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>42369</v>
       </c>
@@ -8677,7 +8712,7 @@
       </c>
       <c r="F477" s="6"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>42369</v>
       </c>
@@ -8695,7 +8730,7 @@
       </c>
       <c r="F478" s="6"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>42369</v>
       </c>
@@ -8711,7 +8746,7 @@
         <v>24653767.999995999</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" s="5">
         <v>42369</v>
       </c>
@@ -8729,7 +8764,7 @@
       </c>
       <c r="F480" s="6"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" s="5">
         <v>42369</v>
       </c>
@@ -8745,7 +8780,7 @@
         <v>1228030</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" s="5">
         <v>42400</v>
       </c>
@@ -8763,7 +8798,7 @@
       </c>
       <c r="F482" s="6"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" s="5">
         <v>42400</v>
       </c>
@@ -8781,7 +8816,7 @@
       </c>
       <c r="F483" s="6"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" s="5">
         <v>42400</v>
       </c>
@@ -8797,7 +8832,7 @@
         <v>22385252.000007</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>42400</v>
       </c>
@@ -8815,7 +8850,7 @@
       </c>
       <c r="F485" s="6"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" s="5">
         <v>42400</v>
       </c>
@@ -8831,7 +8866,7 @@
         <v>1216479</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>42429</v>
       </c>
@@ -8849,7 +8884,7 @@
       </c>
       <c r="F487" s="6"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>42429</v>
       </c>
@@ -8867,7 +8902,7 @@
       </c>
       <c r="F488" s="6"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>42429</v>
       </c>
@@ -8883,7 +8918,7 @@
         <v>21437740.999996003</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>42429</v>
       </c>
@@ -8901,7 +8936,7 @@
       </c>
       <c r="F490" s="6"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>42429</v>
       </c>
@@ -8917,7 +8952,7 @@
         <v>1100191</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>42460</v>
       </c>
@@ -8935,7 +8970,7 @@
       </c>
       <c r="F492" s="6"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>42460</v>
       </c>
@@ -8953,7 +8988,7 @@
       </c>
       <c r="F493" s="6"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>42460</v>
       </c>
@@ -8969,7 +9004,7 @@
         <v>20238449.000011001</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" s="5">
         <v>42460</v>
       </c>
@@ -8987,7 +9022,7 @@
       </c>
       <c r="F495" s="6"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>42460</v>
       </c>
@@ -9003,7 +9038,7 @@
         <v>1349184</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>42490</v>
       </c>
@@ -9021,7 +9056,7 @@
       </c>
       <c r="F497" s="6"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>42490</v>
       </c>
@@ -9039,7 +9074,7 @@
       </c>
       <c r="F498" s="6"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>42490</v>
       </c>
@@ -9055,7 +9090,7 @@
         <v>18209082.000051003</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>42490</v>
       </c>
@@ -9073,7 +9108,7 @@
       </c>
       <c r="F500" s="6"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>42490</v>
       </c>
@@ -9089,7 +9124,7 @@
         <v>701080</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>42521</v>
       </c>
@@ -9107,7 +9142,7 @@
       </c>
       <c r="F502" s="6"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>42521</v>
       </c>
@@ -9125,7 +9160,7 @@
       </c>
       <c r="F503" s="6"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>42521</v>
       </c>
@@ -9141,7 +9176,7 @@
         <v>17466152.000010002</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>42521</v>
       </c>
@@ -9159,7 +9194,7 @@
       </c>
       <c r="F505" s="6"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>42521</v>
       </c>
@@ -9175,7 +9210,7 @@
         <v>1022304</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>42551</v>
       </c>
@@ -9193,7 +9228,7 @@
       </c>
       <c r="F507" s="6"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>42551</v>
       </c>
@@ -9211,7 +9246,7 @@
       </c>
       <c r="F508" s="6"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>42551</v>
       </c>
@@ -9227,7 +9262,7 @@
         <v>24182132.000041001</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>42551</v>
       </c>
@@ -9245,7 +9280,7 @@
       </c>
       <c r="F510" s="6"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511" s="5">
         <v>42551</v>
       </c>
@@ -9261,7 +9296,7 @@
         <v>956567</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512" s="5">
         <v>42582</v>
       </c>
@@ -9279,7 +9314,7 @@
       </c>
       <c r="F512" s="6"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" s="5">
         <v>42582</v>
       </c>
@@ -9297,7 +9332,7 @@
       </c>
       <c r="F513" s="6"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" s="5">
         <v>42582</v>
       </c>
@@ -9313,7 +9348,7 @@
         <v>23325632.999990001</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" s="5">
         <v>42582</v>
       </c>
@@ -9331,7 +9366,7 @@
       </c>
       <c r="F515" s="6"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" s="5">
         <v>42582</v>
       </c>
@@ -9347,7 +9382,7 @@
         <v>976850</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517" s="5">
         <v>42613</v>
       </c>
@@ -9365,7 +9400,7 @@
       </c>
       <c r="F517" s="6"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518" s="5">
         <v>42613</v>
       </c>
@@ -9383,7 +9418,7 @@
       </c>
       <c r="F518" s="6"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519" s="5">
         <v>42613</v>
       </c>
@@ -9399,7 +9434,7 @@
         <v>29500443.999981999</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" s="5">
         <v>42613</v>
       </c>
@@ -9417,7 +9452,7 @@
       </c>
       <c r="F520" s="6"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" s="5">
         <v>42613</v>
       </c>
@@ -9433,7 +9468,7 @@
         <v>1385942</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>42643</v>
       </c>
@@ -9451,7 +9486,7 @@
       </c>
       <c r="F522" s="6"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>42643</v>
       </c>
@@ -9469,7 +9504,7 @@
       </c>
       <c r="F523" s="6"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" s="5">
         <v>42643</v>
       </c>
@@ -9485,7 +9520,7 @@
         <v>27801819.00006</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>42643</v>
       </c>
@@ -9503,7 +9538,7 @@
       </c>
       <c r="F525" s="6"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>42643</v>
       </c>
@@ -9519,7 +9554,7 @@
         <v>1093319</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>42674</v>
       </c>
@@ -9537,7 +9572,7 @@
       </c>
       <c r="F527" s="6"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>42674</v>
       </c>
@@ -9555,7 +9590,7 @@
       </c>
       <c r="F528" s="6"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>42674</v>
       </c>
@@ -9571,7 +9606,7 @@
         <v>30281973.000012003</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>42674</v>
       </c>
@@ -9589,7 +9624,7 @@
       </c>
       <c r="F530" s="6"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>42674</v>
       </c>
@@ -9605,7 +9640,7 @@
         <v>1317886</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>42704</v>
       </c>
@@ -9623,7 +9658,7 @@
       </c>
       <c r="F532" s="6"/>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>42704</v>
       </c>
@@ -9641,7 +9676,7 @@
       </c>
       <c r="F533" s="6"/>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>42704</v>
       </c>
@@ -9657,7 +9692,7 @@
         <v>29341898.000010002</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>42704</v>
       </c>
@@ -9675,7 +9710,7 @@
       </c>
       <c r="F535" s="6"/>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>42704</v>
       </c>
@@ -9691,7 +9726,7 @@
         <v>1334842</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>42735</v>
       </c>
@@ -9709,7 +9744,7 @@
       </c>
       <c r="F537" s="6"/>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>42735</v>
       </c>
@@ -9727,7 +9762,7 @@
       </c>
       <c r="F538" s="6"/>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>42735</v>
       </c>
@@ -9743,7 +9778,7 @@
         <v>27874498.00006</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>42735</v>
       </c>
@@ -9761,7 +9796,7 @@
       </c>
       <c r="F540" s="6"/>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>42735</v>
       </c>
@@ -9777,7 +9812,7 @@
         <v>1275026</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542" s="5">
         <v>42766</v>
       </c>
@@ -9795,7 +9830,7 @@
       </c>
       <c r="F542" s="6"/>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543" s="5">
         <v>42766</v>
       </c>
@@ -9813,7 +9848,7 @@
       </c>
       <c r="F543" s="6"/>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>42766</v>
       </c>
@@ -9829,7 +9864,7 @@
         <v>30451363.000010997</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545" s="5">
         <v>42766</v>
       </c>
@@ -9847,7 +9882,7 @@
       </c>
       <c r="F545" s="6"/>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546" s="5">
         <v>42766</v>
       </c>
@@ -9863,7 +9898,7 @@
         <v>1386837</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" s="5">
         <v>42794</v>
       </c>
@@ -9881,7 +9916,7 @@
       </c>
       <c r="F547" s="6"/>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548" s="5">
         <v>42794</v>
       </c>
@@ -9899,7 +9934,7 @@
       </c>
       <c r="F548" s="6"/>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>42794</v>
       </c>
@@ -9915,7 +9950,7 @@
         <v>26764550.999993999</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>42794</v>
       </c>
@@ -9933,7 +9968,7 @@
       </c>
       <c r="F550" s="6"/>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>42794</v>
       </c>
@@ -9949,7 +9984,7 @@
         <v>1270347</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>42825</v>
       </c>
@@ -9967,7 +10002,7 @@
       </c>
       <c r="F552" s="6"/>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>42825</v>
       </c>
@@ -9985,7 +10020,7 @@
       </c>
       <c r="F553" s="6"/>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>42825</v>
       </c>
@@ -10001,7 +10036,7 @@
         <v>24856949.000011001</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>42825</v>
       </c>
@@ -10019,7 +10054,7 @@
       </c>
       <c r="F555" s="6"/>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>42825</v>
       </c>
@@ -10035,7 +10070,7 @@
         <v>994299</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>42855</v>
       </c>
@@ -10053,7 +10088,7 @@
       </c>
       <c r="F557" s="6"/>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>42855</v>
       </c>
@@ -10071,7 +10106,7 @@
       </c>
       <c r="F558" s="6"/>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>42855</v>
       </c>
@@ -10087,7 +10122,7 @@
         <v>23773493.000018999</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>42855</v>
       </c>
@@ -10105,7 +10140,7 @@
       </c>
       <c r="F560" s="6"/>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" s="5">
         <v>42855</v>
       </c>
@@ -10121,7 +10156,7 @@
         <v>1006718</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" s="5">
         <v>42886</v>
       </c>
@@ -10139,7 +10174,7 @@
       </c>
       <c r="F562" s="6"/>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563" s="5">
         <v>42886</v>
       </c>
@@ -10157,7 +10192,7 @@
       </c>
       <c r="F563" s="6"/>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564" s="5">
         <v>42886</v>
       </c>
@@ -10173,7 +10208,7 @@
         <v>26338320.999960002</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565" s="5">
         <v>42886</v>
       </c>
@@ -10191,7 +10226,7 @@
       </c>
       <c r="F565" s="6"/>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566" s="5">
         <v>42886</v>
       </c>
@@ -10207,7 +10242,7 @@
         <v>1133016</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567" s="5">
         <v>42916</v>
       </c>
@@ -10225,7 +10260,7 @@
       </c>
       <c r="F567" s="6"/>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568" s="5">
         <v>42916</v>
       </c>
@@ -10243,7 +10278,7 @@
       </c>
       <c r="F568" s="6"/>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569" s="5">
         <v>42916</v>
       </c>
@@ -10259,7 +10294,7 @@
         <v>26859513.999966998</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570" s="5">
         <v>42916</v>
       </c>
@@ -10277,7 +10312,7 @@
       </c>
       <c r="F570" s="6"/>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571" s="5">
         <v>42916</v>
       </c>
@@ -10293,7 +10328,7 @@
         <v>1211408</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572" s="5">
         <v>42947</v>
       </c>
@@ -10311,7 +10346,7 @@
       </c>
       <c r="F572" s="6"/>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573" s="5">
         <v>42947</v>
       </c>
@@ -10329,7 +10364,7 @@
       </c>
       <c r="F573" s="6"/>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574" s="5">
         <v>42947</v>
       </c>
@@ -10345,7 +10380,7 @@
         <v>29686410.000049997</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A575" s="5">
         <v>42947</v>
       </c>
@@ -10363,7 +10398,7 @@
       </c>
       <c r="F575" s="6"/>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576" s="5">
         <v>42947</v>
       </c>
@@ -10379,7 +10414,7 @@
         <v>920473</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" s="5">
         <v>42978</v>
       </c>
@@ -10397,7 +10432,7 @@
       </c>
       <c r="F577" s="6"/>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" s="5">
         <v>42978</v>
       </c>
@@ -10415,7 +10450,7 @@
       </c>
       <c r="F578" s="6"/>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" s="5">
         <v>42978</v>
       </c>
@@ -10431,7 +10466,7 @@
         <v>30158574.999995995</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580" s="5">
         <v>42978</v>
       </c>
@@ -10449,7 +10484,7 @@
       </c>
       <c r="F580" s="6"/>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581" s="5">
         <v>42978</v>
       </c>
@@ -10465,7 +10500,7 @@
         <v>1203341</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582" s="5">
         <v>43008</v>
       </c>
@@ -10483,7 +10518,7 @@
       </c>
       <c r="F582" s="6"/>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583" s="5">
         <v>43008</v>
       </c>
@@ -10501,7 +10536,7 @@
       </c>
       <c r="F583" s="6"/>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584" s="5">
         <v>43008</v>
       </c>
@@ -10517,7 +10552,7 @@
         <v>27217702.000036001</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585" s="5">
         <v>43008</v>
       </c>
@@ -10535,7 +10570,7 @@
       </c>
       <c r="F585" s="6"/>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586" s="5">
         <v>43008</v>
       </c>
@@ -10551,7 +10586,7 @@
         <v>958857</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587" s="5">
         <v>43039</v>
       </c>
@@ -10569,7 +10604,7 @@
       </c>
       <c r="F587" s="6"/>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588" s="5">
         <v>43039</v>
       </c>
@@ -10587,7 +10622,7 @@
       </c>
       <c r="F588" s="6"/>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589" s="5">
         <v>43039</v>
       </c>
@@ -10603,7 +10638,7 @@
         <v>27484858.000020999</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590" s="5">
         <v>43039</v>
       </c>
@@ -10621,7 +10656,7 @@
       </c>
       <c r="F590" s="6"/>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591" s="5">
         <v>43039</v>
       </c>
@@ -10637,7 +10672,7 @@
         <v>1123323</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592" s="5">
         <v>43069</v>
       </c>
@@ -10655,7 +10690,7 @@
       </c>
       <c r="F592" s="6"/>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" s="5">
         <v>43069</v>
       </c>
@@ -10673,7 +10708,7 @@
       </c>
       <c r="F593" s="6"/>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" s="5">
         <v>43069</v>
       </c>
@@ -10689,7 +10724,7 @@
         <v>26341942.999997001</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" s="5">
         <v>43069</v>
       </c>
@@ -10707,7 +10742,7 @@
       </c>
       <c r="F595" s="6"/>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" s="5">
         <v>43069</v>
       </c>
@@ -10723,7 +10758,7 @@
         <v>1147396</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" s="5">
         <v>43100</v>
       </c>
@@ -10741,7 +10776,7 @@
       </c>
       <c r="F597" s="6"/>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" s="5">
         <v>43100</v>
       </c>
@@ -10759,7 +10794,7 @@
       </c>
       <c r="F598" s="6"/>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" s="5">
         <v>43100</v>
       </c>
@@ -10775,7 +10810,7 @@
         <v>26144817.999985997</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600" s="5">
         <v>43100</v>
       </c>
@@ -10793,7 +10828,7 @@
       </c>
       <c r="F600" s="6"/>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" s="5">
         <v>43100</v>
       </c>
@@ -10809,7 +10844,7 @@
         <v>1361183</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" s="5">
         <v>43131</v>
       </c>
@@ -10827,7 +10862,7 @@
       </c>
       <c r="F602" s="6"/>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" s="5">
         <v>43131</v>
       </c>
@@ -10845,7 +10880,7 @@
       </c>
       <c r="F603" s="6"/>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604" s="5">
         <v>43131</v>
       </c>
@@ -10861,7 +10896,7 @@
         <v>24624899.000062998</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605" s="5">
         <v>43131</v>
       </c>
@@ -10879,7 +10914,7 @@
       </c>
       <c r="F605" s="6"/>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606" s="5">
         <v>43131</v>
       </c>
@@ -10895,7 +10930,7 @@
         <v>1354891</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607" s="5">
         <v>43159</v>
       </c>
@@ -10913,7 +10948,7 @@
       </c>
       <c r="F607" s="6"/>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" s="5">
         <v>43159</v>
       </c>
@@ -10931,7 +10966,7 @@
       </c>
       <c r="F608" s="6"/>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609" s="5">
         <v>43159</v>
       </c>
@@ -10947,7 +10982,7 @@
         <v>25184555.000026997</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610" s="5">
         <v>43159</v>
       </c>
@@ -10965,7 +11000,7 @@
       </c>
       <c r="F610" s="6"/>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A611" s="5">
         <v>43159</v>
       </c>
@@ -10981,7 +11016,7 @@
         <v>701497</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A612" s="5">
         <v>43190</v>
       </c>
@@ -10999,7 +11034,7 @@
       </c>
       <c r="F612" s="6"/>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A613" s="5">
         <v>43190</v>
       </c>
@@ -11017,7 +11052,7 @@
       </c>
       <c r="F613" s="6"/>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614" s="5">
         <v>43190</v>
       </c>
@@ -11033,7 +11068,7 @@
         <v>25635737.000028998</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615" s="5">
         <v>43190</v>
       </c>
@@ -11051,7 +11086,7 @@
       </c>
       <c r="F615" s="6"/>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616" s="5">
         <v>43190</v>
       </c>
@@ -11067,7 +11102,7 @@
         <v>827534</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A617" s="5">
         <v>43220</v>
       </c>
@@ -11085,7 +11120,7 @@
       </c>
       <c r="F617" s="6"/>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618" s="5">
         <v>43220</v>
       </c>
@@ -11103,7 +11138,7 @@
       </c>
       <c r="F618" s="6"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619" s="5">
         <v>43220</v>
       </c>
@@ -11119,7 +11154,7 @@
         <v>22140801.000011999</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A620" s="5">
         <v>43220</v>
       </c>
@@ -11137,7 +11172,7 @@
       </c>
       <c r="F620" s="6"/>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A621" s="5">
         <v>43220</v>
       </c>
@@ -11153,7 +11188,7 @@
         <v>815363</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622" s="5">
         <v>43251</v>
       </c>
@@ -11171,7 +11206,7 @@
       </c>
       <c r="F622" s="6"/>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623" s="5">
         <v>43251</v>
       </c>
@@ -11189,7 +11224,7 @@
       </c>
       <c r="F623" s="6"/>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624" s="5">
         <v>43251</v>
       </c>
@@ -11205,7 +11240,7 @@
         <v>22503161.999998</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625" s="5">
         <v>43251</v>
       </c>
@@ -11223,7 +11258,7 @@
       </c>
       <c r="F625" s="6"/>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626" s="5">
         <v>43251</v>
       </c>
@@ -11239,7 +11274,7 @@
         <v>1223737</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627" s="5">
         <v>43281</v>
       </c>
@@ -11257,7 +11292,7 @@
       </c>
       <c r="F627" s="6"/>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A628" s="5">
         <v>43281</v>
       </c>
@@ -11275,7 +11310,7 @@
       </c>
       <c r="F628" s="6"/>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A629" s="5">
         <v>43281</v>
       </c>
@@ -11291,7 +11326,7 @@
         <v>24843304</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A630" s="5">
         <v>43281</v>
       </c>
@@ -11309,7 +11344,7 @@
       </c>
       <c r="F630" s="6"/>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A631" s="5">
         <v>43281</v>
       </c>
@@ -11325,7 +11360,7 @@
         <v>1024930</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632" s="5">
         <v>43312</v>
       </c>
@@ -11336,14 +11371,14 @@
         <v>7</v>
       </c>
       <c r="D632" s="6">
-        <v>51261551.401684001</v>
+        <v>51261550.401684001</v>
       </c>
       <c r="E632" s="6">
-        <v>85991954.487503007</v>
+        <v>85991953.487503007</v>
       </c>
       <c r="F632" s="6"/>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633" s="5">
         <v>43312</v>
       </c>
@@ -11354,14 +11389,14 @@
         <v>8</v>
       </c>
       <c r="D633" s="6">
-        <v>17509774.243620999</v>
+        <v>17509773.243620999</v>
       </c>
       <c r="E633" s="6">
-        <v>265753565.37149292</v>
+        <v>265753564.37149301</v>
       </c>
       <c r="F633" s="6"/>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A634" s="5">
         <v>43312</v>
       </c>
@@ -11374,10 +11409,10 @@
       <c r="D634" s="6"/>
       <c r="E634" s="6"/>
       <c r="F634" s="6">
-        <v>27076961.999998998</v>
-      </c>
-    </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27076960.999999002</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635" s="5">
         <v>43312</v>
       </c>
@@ -11388,14 +11423,14 @@
         <v>8</v>
       </c>
       <c r="D635" s="6">
-        <v>6252210.2642059997</v>
+        <v>6252209.2642059997</v>
       </c>
       <c r="E635" s="6">
-        <v>27170033.337174002</v>
+        <v>27170032.337173998</v>
       </c>
       <c r="F635" s="6"/>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A636" s="5">
         <v>43312</v>
       </c>
@@ -11408,7 +11443,7 @@
       <c r="D636" s="6"/>
       <c r="E636" s="6"/>
       <c r="F636" s="6">
-        <v>1200780</v>
+        <v>1200779</v>
       </c>
     </row>
   </sheetData>
@@ -11417,24 +11452,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
